--- a/data_indexpoints_tidy/tallmateriale_16952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_16952.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E1775-A935-489D-B654-B44C604DBC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54915" yWindow="15" windowWidth="21870" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -18,705 +12,16 @@
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
     <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="228">
-  <si>
-    <t>trp_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>road_reference</t>
-  </si>
-  <si>
-    <t>road_category_and_number</t>
-  </si>
-  <si>
-    <t>county_name</t>
-  </si>
-  <si>
-    <t>municipality_name</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>road_link_position</t>
-  </si>
-  <si>
-    <t>traffic_type</t>
-  </si>
-  <si>
-    <t>adt</t>
-  </si>
-  <si>
-    <t>year_aadt</t>
-  </si>
-  <si>
-    <t>adt_ref</t>
-  </si>
-  <si>
-    <t>ydt_ref_light</t>
-  </si>
-  <si>
-    <t>ydt_ref_heavy</t>
-  </si>
-  <si>
-    <t>ydt_light</t>
-  </si>
-  <si>
-    <t>ydt_heavy</t>
-  </si>
-  <si>
-    <t>64888V1125917</t>
-  </si>
-  <si>
-    <t>Tverrforbindelsen</t>
-  </si>
-  <si>
-    <t>EV8 S1D1 m2385</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>Troms</t>
-  </si>
-  <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>0.62585@1125917</t>
-  </si>
-  <si>
-    <t>VEHICLE</t>
-  </si>
-  <si>
-    <t>14843V1125937</t>
-  </si>
-  <si>
-    <t>Giæverbukta nord</t>
-  </si>
-  <si>
-    <t>EV8 S1D10 m31</t>
-  </si>
-  <si>
-    <t>0.14843@1125937</t>
-  </si>
-  <si>
-    <t>55092V1125799</t>
-  </si>
-  <si>
-    <t>Breivika</t>
-  </si>
-  <si>
-    <t>EV8 S2D1 m207</t>
-  </si>
-  <si>
-    <t>0.14157@1125799</t>
-  </si>
-  <si>
-    <t>68511V2673383</t>
-  </si>
-  <si>
-    <t>Tromsøysundtunnelen T1</t>
-  </si>
-  <si>
-    <t>EV8 S2D1 m2967</t>
-  </si>
-  <si>
-    <t>0.68511@2673383</t>
-  </si>
-  <si>
-    <t>31157V2782679</t>
-  </si>
-  <si>
-    <t>Tromsøysundtunnelen T2</t>
-  </si>
-  <si>
-    <t>EV8 S2D1 m5455</t>
-  </si>
-  <si>
-    <t>0.31157@2782679</t>
-  </si>
-  <si>
-    <t>31958V1125796</t>
-  </si>
-  <si>
-    <t>Kraftforsyningen (Tomasjord)</t>
-  </si>
-  <si>
-    <t>EV8 S2D1 m8454</t>
-  </si>
-  <si>
-    <t>0.31958@1125796</t>
-  </si>
-  <si>
-    <t>85147V1201967</t>
-  </si>
-  <si>
-    <t>Hungeren</t>
-  </si>
-  <si>
-    <t>EV8 S3D1 m1048</t>
-  </si>
-  <si>
-    <t>0.85147@1201967</t>
-  </si>
-  <si>
-    <t>61732V1126304</t>
-  </si>
-  <si>
-    <t>Sandvikeidet</t>
-  </si>
-  <si>
-    <t>EV8 S4D1 m225</t>
-  </si>
-  <si>
-    <t>0.61727@1126304</t>
-  </si>
-  <si>
-    <t>07954V1125849</t>
-  </si>
-  <si>
-    <t>Fagernes øst</t>
-  </si>
-  <si>
-    <t>FV91 S1D1 m767</t>
-  </si>
-  <si>
-    <t>fv. 91</t>
-  </si>
-  <si>
-    <t>0.07954@1125849</t>
-  </si>
-  <si>
-    <t>98487V2057940</t>
-  </si>
-  <si>
-    <t>Ryatunnelen</t>
-  </si>
-  <si>
-    <t>FV858 S7D1 m1496</t>
-  </si>
-  <si>
-    <t>fv. 858</t>
-  </si>
-  <si>
-    <t>0.98487@2057940</t>
-  </si>
-  <si>
-    <t>92719V1125906</t>
-  </si>
-  <si>
-    <t>Eidkjosen sør</t>
-  </si>
-  <si>
-    <t>FV858 S8D1 m14321</t>
-  </si>
-  <si>
-    <t>0.92719@1125906</t>
-  </si>
-  <si>
-    <t>79743V1125914</t>
-  </si>
-  <si>
-    <t>Tromsøbrua</t>
-  </si>
-  <si>
-    <t>FV862 S1D1 m1705</t>
-  </si>
-  <si>
-    <t>fv. 862</t>
-  </si>
-  <si>
-    <t>0.79763@1125914</t>
-  </si>
-  <si>
-    <t>82998V1125914</t>
-  </si>
-  <si>
-    <t>Tromsøbrua avkjøring</t>
-  </si>
-  <si>
-    <t>FV862 S1D1 m1780</t>
-  </si>
-  <si>
-    <t>0.8328@1125914</t>
-  </si>
-  <si>
-    <t>80998V1125915</t>
-  </si>
-  <si>
-    <t>Hansjordnestunnelen</t>
-  </si>
-  <si>
-    <t>FV862 S1D1 m2411</t>
-  </si>
-  <si>
-    <t>0.80998@1125915</t>
-  </si>
-  <si>
-    <t>05293V1125916</t>
-  </si>
-  <si>
-    <t>Breiviktunnelen</t>
-  </si>
-  <si>
-    <t>FV862 S1D1 m2604</t>
-  </si>
-  <si>
-    <t>0.05293@1125916</t>
-  </si>
-  <si>
-    <t>71291V1125935</t>
-  </si>
-  <si>
-    <t>Sentrumstangenten</t>
-  </si>
-  <si>
-    <t>FV862 S1D10 m791</t>
-  </si>
-  <si>
-    <t>0.71291@1125935</t>
-  </si>
-  <si>
-    <t>52043V1664653</t>
-  </si>
-  <si>
-    <t>Langnestunnelen</t>
-  </si>
-  <si>
-    <t>FV862 S1D20 m897</t>
-  </si>
-  <si>
-    <t>0.52043@1664653</t>
-  </si>
-  <si>
-    <t>49212V1126027</t>
-  </si>
-  <si>
-    <t>Postterminalen</t>
-  </si>
-  <si>
-    <t>FV862 S1D30 m46</t>
-  </si>
-  <si>
-    <t>0.86826@1126027</t>
-  </si>
-  <si>
-    <t>02636V1125920</t>
-  </si>
-  <si>
-    <t>Sandnessundbrua</t>
-  </si>
-  <si>
-    <t>FV862 S2D1 m609</t>
-  </si>
-  <si>
-    <t>0.02631@1125920</t>
-  </si>
-  <si>
-    <t>62639V2268190</t>
-  </si>
-  <si>
-    <t>Kvaløysletta sør</t>
-  </si>
-  <si>
-    <t>FV862 S2D1 m2930</t>
-  </si>
-  <si>
-    <t>0.63232@2268190</t>
-  </si>
-  <si>
-    <t>54570V1126345</t>
-  </si>
-  <si>
-    <t>Eidkjosen</t>
-  </si>
-  <si>
-    <t>FV862 S3D1 m201</t>
-  </si>
-  <si>
-    <t>0.53527@1126345</t>
-  </si>
-  <si>
-    <t>03836V1125958</t>
-  </si>
-  <si>
-    <t>Kvaløysletta nord</t>
-  </si>
-  <si>
-    <t>FV863 S1D1 m380</t>
-  </si>
-  <si>
-    <t>fv. 863</t>
-  </si>
-  <si>
-    <t>0.03836@1125958</t>
-  </si>
-  <si>
-    <t>13980V1126353</t>
-  </si>
-  <si>
-    <t>Lunheim</t>
-  </si>
-  <si>
-    <t>FV864 S1D1 m1417</t>
-  </si>
-  <si>
-    <t>fv. 864</t>
-  </si>
-  <si>
-    <t>0.14866@1126353</t>
-  </si>
-  <si>
-    <t>30868V1109333</t>
-  </si>
-  <si>
-    <t>Dramsvegen</t>
-  </si>
-  <si>
-    <t>KV7000 S4D1 m394</t>
-  </si>
-  <si>
-    <t>kv. 7000</t>
-  </si>
-  <si>
-    <t>0.30877@1109333</t>
-  </si>
-  <si>
-    <t>01057V1109432</t>
-  </si>
-  <si>
-    <t>Hansine Hansens veg</t>
-  </si>
-  <si>
-    <t>KV12650 S2D1 m19</t>
-  </si>
-  <si>
-    <t>kv. 12650</t>
-  </si>
-  <si>
-    <t>0.00919@1109432</t>
-  </si>
-  <si>
-    <t>47285V3050559</t>
-  </si>
-  <si>
-    <t>Kvaløyvegen</t>
-  </si>
-  <si>
-    <t>KV20600 S1D70 m1342</t>
-  </si>
-  <si>
-    <t>kv. 20600</t>
-  </si>
-  <si>
-    <t>0.47285@3050559</t>
-  </si>
-  <si>
-    <t>34219V1109528</t>
-  </si>
-  <si>
-    <t>Prestvannet</t>
-  </si>
-  <si>
-    <t>KV21200 S1D1 m639</t>
-  </si>
-  <si>
-    <t>kv. 21200</t>
-  </si>
-  <si>
-    <t>0.34219@1109528</t>
-  </si>
-  <si>
-    <t>74530V2378328</t>
-  </si>
-  <si>
-    <t>Ringvegen</t>
-  </si>
-  <si>
-    <t>KV30790 S2D1 m4397</t>
-  </si>
-  <si>
-    <t>kv. 30790</t>
-  </si>
-  <si>
-    <t>0.7453@2378328</t>
-  </si>
-  <si>
-    <t>46453V1109708</t>
-  </si>
-  <si>
-    <t>Stakkevollvegen</t>
-  </si>
-  <si>
-    <t>KV37650 S1D1 m913</t>
-  </si>
-  <si>
-    <t>kv. 37650</t>
-  </si>
-  <si>
-    <t>0.46453@1109708</t>
-  </si>
-  <si>
-    <t>05899V1109722</t>
-  </si>
-  <si>
-    <t>Strandvegen</t>
-  </si>
-  <si>
-    <t>KV40500 S1D1 m156</t>
-  </si>
-  <si>
-    <t>kv. 40500</t>
-  </si>
-  <si>
-    <t>0.05899@1109722</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>okt</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>year_base</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year_from_to</t>
-  </si>
-  <si>
-    <t>index_type</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>n_trp</t>
-  </si>
-  <si>
-    <t>index_i</t>
-  </si>
-  <si>
-    <t>index_p</t>
-  </si>
-  <si>
-    <t>standard_error</t>
-  </si>
-  <si>
-    <t>ci_lower</t>
-  </si>
-  <si>
-    <t>ci_upper</t>
-  </si>
-  <si>
-    <t>area_name</t>
-  </si>
-  <si>
-    <t>2019-2022</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>jan-des</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
-    <t>jan-aug</t>
-  </si>
-  <si>
-    <t>2022-2024</t>
-  </si>
-  <si>
-    <t>chained</t>
-  </si>
-  <si>
-    <t>2019-2023</t>
-  </si>
-  <si>
-    <t>2019-2024</t>
-  </si>
-  <si>
-    <t>n_eff</t>
-  </si>
-  <si>
-    <t>sd_sample_p</t>
-  </si>
-  <si>
-    <t>standard_error_p</t>
-  </si>
-  <si>
-    <t>index_period</t>
-  </si>
-  <si>
-    <t>month_object</t>
-  </si>
-  <si>
-    <t>month_n</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>2019 - (jan 2023 - des 2023)</t>
-  </si>
-  <si>
-    <t>12_months</t>
-  </si>
-  <si>
-    <t>2019 - (feb 2023 - jan 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (mar 2023 - feb 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (apr 2023 - mar 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (mai 2023 - apr 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (jun 2023 - mai 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (jul 2023 - jun 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (aug 2023 - jul 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (sep 2023 - aug 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (okt 2023 - sep 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (nov 2023 - okt 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (des 2023 - nov 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (jan 2024 - des 2024)</t>
-  </si>
-  <si>
-    <t>2019 - (feb 2024 - jan 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (mar 2024 - feb 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (apr 2024 - mar 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (mai 2024 - apr 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (jun 2024 - mai 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (jul 2024 - jun 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (aug 2024 - jul 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (sep 2024 - aug 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (jan 2023 - des 2024)</t>
-  </si>
-  <si>
-    <t>24_months</t>
-  </si>
-  <si>
-    <t>2019 - (feb 2023 - jan 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (mar 2023 - feb 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (apr 2023 - mar 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (mai 2023 - apr 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (jun 2023 - mai 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (jul 2023 - jun 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (aug 2023 - jul 2025)</t>
-  </si>
-  <si>
-    <t>2019 - (sep 2023 - aug 2025)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,21 +70,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -817,7 +114,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -851,7 +148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -886,10 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1062,84 +357,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trp_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>road_reference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>road_category_and_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>county_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>municipality_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>road_link_position</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>traffic_type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>adt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>year_aadt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>adt_ref</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_ref_light</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_ref_heavy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_light</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ydt_heavy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>64888V1125917</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tverrforbindelsen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EV8 S1D1 m2385</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G2">
         <v>69.676378</v>
@@ -1147,11 +488,15 @@
       <c r="H2">
         <v>18.943517</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.62585@1125917</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K2">
         <v>15860</v>
@@ -1175,36 +520,52 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14843V1125937</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Giæverbukta nord</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EV8 S1D10 m31</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G3">
-        <v>69.672391000000005</v>
+        <v>69.672391</v>
       </c>
       <c r="H3">
-        <v>18.917581999999999</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
+        <v>18.917582</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.14843@1125937</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K3">
         <v>16810</v>
@@ -1228,36 +589,52 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>55092V1125799</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Breivika</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EV8 S2D1 m207</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G4">
-        <v>69.677575000000004</v>
+        <v>69.677575</v>
       </c>
       <c r="H4">
-        <v>18.980191999999999</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
+        <v>18.980192</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.14157@1125799</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K4">
         <v>19950</v>
@@ -1281,36 +658,52 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>68511V2673383</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EV8 S2D1 m2967</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G5">
-        <v>69.670119999999997</v>
+        <v>69.67012</v>
       </c>
       <c r="H5">
-        <v>19.018381999999999</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
+        <v>19.018382</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.68511@2673383</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K5">
         <v>5790</v>
@@ -1334,36 +727,52 @@
         <v>910</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>31157V2782679</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EV8 S2D1 m5455</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G6">
-        <v>69.670086999999995</v>
+        <v>69.670087</v>
       </c>
       <c r="H6">
         <v>19.019226</v>
       </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.31157@2782679</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K6">
         <v>5570</v>
@@ -1387,36 +796,52 @@
         <v>930</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>31958V1125796</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kraftforsyningen (Tomasjord)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EV8 S2D1 m8454</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G7">
-        <v>69.657706000000005</v>
+        <v>69.657706</v>
       </c>
       <c r="H7">
-        <v>19.012070000000001</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
+        <v>19.01207</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.31958@1125796</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K7">
         <v>12320</v>
@@ -1440,36 +865,52 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>85147V1201967</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hungeren</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EV8 S3D1 m1048</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G8">
-        <v>69.635615999999999</v>
+        <v>69.635616</v>
       </c>
       <c r="H8">
-        <v>18.961608999999999</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
+        <v>18.961609</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.85147@1201967</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K8">
         <v>10720</v>
@@ -1493,36 +934,52 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>61732V1126304</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sandvikeidet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EV8 S4D1 m225</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G9">
-        <v>69.546296999999996</v>
+        <v>69.546297</v>
       </c>
       <c r="H9">
         <v>19.008474</v>
       </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.61727@1126304</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K9">
         <v>5240</v>
@@ -1546,36 +1003,52 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07954V1125849</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fagernes øst</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FV91 S1D1 m767</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fv. 91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G10">
-        <v>69.565062999999995</v>
+        <v>69.56506299999999</v>
       </c>
       <c r="H10">
-        <v>19.195416000000002</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
+        <v>19.195416</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.07954@1125849</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K10">
         <v>940</v>
@@ -1599,36 +1072,52 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>98487V2057940</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ryatunnelen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FV858 S7D1 m1496</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G11">
-        <v>69.566714000000005</v>
+        <v>69.566714</v>
       </c>
       <c r="H11">
         <v>18.797272</v>
       </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.98487@2057940</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K11">
         <v>720</v>
@@ -1652,36 +1141,52 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>92719V1125906</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eidkjosen sør</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FV858 S8D1 m14321</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G12">
-        <v>69.673681000000002</v>
+        <v>69.673681</v>
       </c>
       <c r="H12">
-        <v>18.744357000000001</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
+        <v>18.744357</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.92719@1125906</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K12">
         <v>2800</v>
@@ -1705,36 +1210,52 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>79743V1125914</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tromsøbrua</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FV862 S1D1 m1705</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G13">
-        <v>69.654123999999996</v>
+        <v>69.654124</v>
       </c>
       <c r="H13">
-        <v>18.965350000000001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
+        <v>18.96535</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.79763@1125914</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K13">
         <v>12330</v>
@@ -1758,36 +1279,52 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>82998V1125914</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tromsøbrua avkjøring</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FV862 S1D1 m1780</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G14">
-        <v>69.654510999999999</v>
+        <v>69.654511</v>
       </c>
       <c r="H14">
-        <v>18.963823000000001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
+        <v>18.963823</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.8328@1125914</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K14">
         <v>4540</v>
@@ -1811,36 +1348,52 @@
         <v>740</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>80998V1125915</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hansjordnestunnelen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FV862 S1D1 m2411</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G15">
         <v>69.657871</v>
       </c>
       <c r="H15">
-        <v>18.956873000000002</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
+        <v>18.956873</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.80998@1125915</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K15">
         <v>9070</v>
@@ -1864,36 +1417,52 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05293V1125916</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Breiviktunnelen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FV862 S1D1 m2604</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G16">
-        <v>69.659464999999997</v>
+        <v>69.659465</v>
       </c>
       <c r="H16">
-        <v>18.955189000000001</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
+        <v>18.955189</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.05293@1125916</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K16">
         <v>5330</v>
@@ -1917,36 +1486,52 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>71291V1125935</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sentrumstangenten</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FV862 S1D10 m791</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G17">
-        <v>69.651872999999995</v>
+        <v>69.65187299999999</v>
       </c>
       <c r="H17">
         <v>18.945449</v>
       </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.71291@1125935</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K17">
         <v>5550</v>
@@ -1970,36 +1555,52 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>52043V1664653</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Langnestunnelen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FV862 S1D20 m897</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G18">
-        <v>69.663863000000006</v>
+        <v>69.66386300000001</v>
       </c>
       <c r="H18">
-        <v>18.938922999999999</v>
-      </c>
-      <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
+        <v>18.938923</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.52043@1664653</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K18">
         <v>10710</v>
@@ -2023,36 +1624,52 @@
         <v>860</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>49212V1126027</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Postterminalen</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FV862 S1D30 m46</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G19">
-        <v>69.669610000000006</v>
+        <v>69.66961000000001</v>
       </c>
       <c r="H19">
-        <v>18.919523000000002</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
+        <v>18.919523</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.86826@1126027</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K19">
         <v>12370</v>
@@ -2076,36 +1693,52 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>02636V1125920</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sandnessundbrua</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FV862 S2D1 m609</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G20">
-        <v>69.683994999999996</v>
+        <v>69.683995</v>
       </c>
       <c r="H20">
         <v>18.905659</v>
       </c>
-      <c r="I20" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.02631@1125920</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K20">
         <v>14530</v>
@@ -2129,36 +1762,52 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>62639V2268190</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kvaløysletta sør</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FV862 S2D1 m2930</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G21">
-        <v>69.693002000000007</v>
+        <v>69.69300200000001</v>
       </c>
       <c r="H21">
-        <v>18.872475999999999</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
+        <v>18.872476</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.63232@2268190</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K21">
         <v>12430</v>
@@ -2182,36 +1831,52 @@
         <v>840</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>54570V1126345</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eidkjosen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FV862 S3D1 m201</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G22">
-        <v>69.678916999999998</v>
+        <v>69.678917</v>
       </c>
       <c r="H22">
-        <v>18.746918999999998</v>
-      </c>
-      <c r="I22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
+        <v>18.746919</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.53527@1126345</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K22">
         <v>3870</v>
@@ -2235,36 +1900,52 @@
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>03836V1125958</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Kvaløysletta nord</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FV863 S1D1 m380</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>fv. 863</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G23">
-        <v>69.698434000000006</v>
+        <v>69.69843400000001</v>
       </c>
       <c r="H23">
-        <v>18.889475999999998</v>
-      </c>
-      <c r="I23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
+        <v>18.889476</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.03836@1125958</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K23">
         <v>4770</v>
@@ -2288,36 +1969,52 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13980V1126353</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lunheim</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FV864 S1D1 m1417</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>fv. 864</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G24">
-        <v>69.672967999999997</v>
+        <v>69.672968</v>
       </c>
       <c r="H24">
-        <v>19.038623000000001</v>
-      </c>
-      <c r="I24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
+        <v>19.038623</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.14866@1126353</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K24">
         <v>9400</v>
@@ -2341,36 +2038,52 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>30868V1109333</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dramsvegen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>KV7000 S4D1 m394</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>kv. 7000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G25">
-        <v>69.661844000000002</v>
+        <v>69.661844</v>
       </c>
       <c r="H25">
-        <v>18.959924999999998</v>
-      </c>
-      <c r="I25" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
+        <v>18.959925</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.30877@1109333</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K25">
         <v>1810</v>
@@ -2385,36 +2098,52 @@
         <v>430</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01057V1109432</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hansine Hansens veg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KV12650 S2D1 m19</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>kv. 12650</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G26">
-        <v>69.678859000000003</v>
+        <v>69.678859</v>
       </c>
       <c r="H26">
-        <v>18.969059999999999</v>
-      </c>
-      <c r="I26" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
+        <v>18.96906</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.00919@1109432</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K26">
         <v>2230</v>
@@ -2429,36 +2158,52 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>47285V3050559</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kvaløyvegen</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KV20600 S1D70 m1342</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>kv. 20600</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G27">
-        <v>69.652518000000001</v>
+        <v>69.652518</v>
       </c>
       <c r="H27">
-        <v>18.903338000000002</v>
-      </c>
-      <c r="I27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" t="s">
-        <v>24</v>
+        <v>18.903338</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.47285@3050559</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K27">
         <v>5580</v>
@@ -2473,36 +2218,52 @@
         <v>480</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>34219V1109528</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Prestvannet</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>KV21200 S1D1 m639</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>kv. 21200</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G28">
-        <v>69.658698000000001</v>
+        <v>69.658698</v>
       </c>
       <c r="H28">
         <v>18.930273</v>
       </c>
-      <c r="I28" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.34219@1109528</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K28">
         <v>4870</v>
@@ -2517,36 +2278,52 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>74530V2378328</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ringvegen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KV30790 S2D1 m4397</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>kv. 30790</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G29">
-        <v>69.694716999999997</v>
+        <v>69.694717</v>
       </c>
       <c r="H29">
         <v>18.938157</v>
       </c>
-      <c r="I29" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.7453@2378328</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K29">
         <v>4130</v>
@@ -2561,36 +2338,52 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>46453V1109708</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stakkevollvegen</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>KV37650 S1D1 m913</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kv. 37650</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G30">
-        <v>69.666839999999993</v>
+        <v>69.66683999999999</v>
       </c>
       <c r="H30">
-        <v>18.968893999999999</v>
-      </c>
-      <c r="I30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
+        <v>18.968894</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.46453@1109708</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2605,36 +2398,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05899V1109722</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strandvegen</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>KV40500 S1D1 m156</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>kv. 40500</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Troms</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
       <c r="G31">
-        <v>69.644366000000005</v>
+        <v>69.64436600000001</v>
       </c>
       <c r="H31">
-        <v>18.946964000000001</v>
-      </c>
-      <c r="I31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
+        <v>18.946964</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.05899@1109722</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
       </c>
       <c r="K31">
         <v>3780</v>
@@ -2655,78 +2464,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trp_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>road_category_and_number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>jan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>feb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mar</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>apr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mai</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>jun</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>jul</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>aug</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sep</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>okt</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>nov</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>des</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>55092V1125799</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Breivika</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D2">
         <v>2023</v>
       </c>
       <c r="E2">
-        <v>-9.3699999999999992</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="F2">
         <v>-11.69</v>
@@ -2741,7 +2588,7 @@
         <v>-12.8</v>
       </c>
       <c r="J2">
-        <v>-8.6199999999999992</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="K2">
         <v>-7.52</v>
@@ -2759,15 +2606,21 @@
         <v>-10.42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>55092V1125799</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Breivika</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D3">
         <v>2024</v>
@@ -2776,7 +2629,7 @@
         <v>-1.55</v>
       </c>
       <c r="G3">
-        <v>-8.0399999999999991</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="H3">
         <v>17.8</v>
@@ -2785,27 +2638,33 @@
         <v>3.27</v>
       </c>
       <c r="O3">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="P3">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>55092V1125799</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Breivika</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="F4">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="G4">
         <v>12.64</v>
@@ -2814,15 +2673,21 @@
         <v>-8.69</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05293V1125916</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Breiviktunnelen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -2852,43 +2717,61 @@
         <v>-13.92</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05293V1125916</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Breiviktunnelen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D6">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05293V1125916</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Breiviktunnelen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>30868V1109333</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dramsvegen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>kv. 7000</t>
+        </is>
       </c>
       <c r="D8">
         <v>2023</v>
@@ -2906,46 +2789,61 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30868V1109333</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dramsvegen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kv. 7000</t>
+        </is>
       </c>
       <c r="D9">
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30868V1109333</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dramsvegen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>kv. 7000</t>
+        </is>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
-      <c r="F10">
-        <v>12.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>54570V1126345</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eidkjosen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D11">
         <v>2023</v>
@@ -2954,13 +2852,13 @@
         <v>3.99</v>
       </c>
       <c r="F11">
-        <v>-2.2999999999999998</v>
+        <v>-2.3</v>
       </c>
       <c r="G11">
         <v>-1.34</v>
       </c>
       <c r="H11">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="I11">
         <v>-9.34</v>
@@ -2978,24 +2876,30 @@
         <v>-5.57</v>
       </c>
       <c r="N11">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="O11">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="P11">
         <v>3.62</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>54570V1126345</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eidkjosen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D12">
         <v>2024</v>
@@ -3019,7 +2923,7 @@
         <v>-1.34</v>
       </c>
       <c r="K12">
-        <v>9.3699999999999992</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="L12">
         <v>6.44</v>
@@ -3037,15 +2941,21 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>54570V1126345</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Eidkjosen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -3057,13 +2967,13 @@
         <v>9.91</v>
       </c>
       <c r="G13">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="H13">
         <v>-7.9</v>
       </c>
       <c r="I13">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="J13">
         <v>6.63</v>
@@ -3074,16 +2984,25 @@
       <c r="L13">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
+      <c r="M13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>92719V1125906</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Eidkjosen sør</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
       </c>
       <c r="D14">
         <v>2023</v>
@@ -3122,18 +3041,24 @@
         <v>3.27</v>
       </c>
       <c r="P14">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>92719V1125906</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Eidkjosen sør</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
       </c>
       <c r="D15">
         <v>2024</v>
@@ -3148,7 +3073,7 @@
         <v>6.6</v>
       </c>
       <c r="H15">
-        <v>8.61</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I15">
         <v>3.72</v>
@@ -3166,7 +3091,7 @@
         <v>-1.38</v>
       </c>
       <c r="N15">
-        <v>-0.81</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="O15">
         <v>-1.41</v>
@@ -3175,15 +3100,21 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>92719V1125906</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Eidkjosen sør</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
       </c>
       <c r="D16">
         <v>2025</v>
@@ -3192,7 +3123,7 @@
         <v>7.44</v>
       </c>
       <c r="F16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16">
         <v>-2.97</v>
@@ -3201,7 +3132,7 @@
         <v>-2.58</v>
       </c>
       <c r="I16">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="J16">
         <v>1.45</v>
@@ -3212,16 +3143,25 @@
       <c r="L16">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
+      <c r="M16">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07954V1125849</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fagernes øst</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fv. 91</t>
+        </is>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -3248,7 +3188,7 @@
         <v>7.54</v>
       </c>
       <c r="L17">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M17">
         <v>-0.26</v>
@@ -3263,15 +3203,21 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07954V1125849</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fagernes øst</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fv. 91</t>
+        </is>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -3286,7 +3232,7 @@
         <v>14.65</v>
       </c>
       <c r="H18">
-        <v>8.9499999999999993</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I18">
         <v>5.74</v>
@@ -3301,7 +3247,7 @@
         <v>-0.3</v>
       </c>
       <c r="M18">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="N18">
         <v>2.98</v>
@@ -3313,15 +3259,21 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07954V1125849</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fagernes øst</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fv. 91</t>
+        </is>
       </c>
       <c r="D19">
         <v>2025</v>
@@ -3342,7 +3294,7 @@
         <v>0.1</v>
       </c>
       <c r="J19">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="K19">
         <v>2.52</v>
@@ -3350,16 +3302,25 @@
       <c r="L19">
         <v>-6.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
+      <c r="M19">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14843V1125937</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Giæverbukta nord</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D20">
         <v>2023</v>
@@ -3398,18 +3359,24 @@
         <v>-13.39</v>
       </c>
       <c r="P20">
-        <v>-10.210000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
+        <v>-10.21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14843V1125937</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Giæverbukta nord</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D21">
         <v>2024</v>
@@ -3445,29 +3412,41 @@
         <v>-6.02</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14843V1125937</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Giæverbukta nord</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01057V1109432</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hansine Hansens veg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>kv. 12650</t>
+        </is>
       </c>
       <c r="D23">
         <v>2023</v>
@@ -3485,13 +3464,13 @@
         <v>-23.78</v>
       </c>
       <c r="I23">
-        <v>-16.399999999999999</v>
+        <v>-16.4</v>
       </c>
       <c r="J23">
         <v>-9.43</v>
       </c>
       <c r="K23">
-        <v>-9.39</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="L23">
         <v>-12.05</v>
@@ -3509,15 +3488,21 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01057V1109432</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hansine Hansens veg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>kv. 12650</t>
+        </is>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -3559,15 +3544,21 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01057V1109432</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hansine Hansens veg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>kv. 12650</t>
+        </is>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -3576,7 +3567,7 @@
         <v>7.86</v>
       </c>
       <c r="F25">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="G25">
         <v>11.84</v>
@@ -3596,16 +3587,25 @@
       <c r="L25">
         <v>-6.64</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
+      <c r="M25">
+        <v>-2.61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>80998V1125915</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hansjordnestunnelen</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -3635,43 +3635,61 @@
         <v>-6.05</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>80998V1125915</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hansjordnestunnelen</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D27">
         <v>2024</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>80998V1125915</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hansjordnestunnelen</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>85147V1201967</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hungeren</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D29">
         <v>2023</v>
@@ -3707,21 +3725,27 @@
         <v>-1.2</v>
       </c>
       <c r="O29">
-        <v>-2.2999999999999998</v>
+        <v>-2.3</v>
       </c>
       <c r="P29">
         <v>-1.76</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>85147V1201967</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hungeren</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D30">
         <v>2024</v>
@@ -3760,21 +3784,27 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>85147V1201967</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hungeren</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="F31">
         <v>2.89</v>
@@ -3794,22 +3824,31 @@
       <c r="L31">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
+      <c r="M31">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31958V1125796</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Kraftforsyningen (Tomasjord)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D32">
         <v>2023</v>
       </c>
       <c r="E32">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="F32">
         <v>0.43</v>
@@ -3845,15 +3884,21 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31958V1125796</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Kraftforsyningen (Tomasjord)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D33">
         <v>2024</v>
@@ -3871,7 +3916,7 @@
         <v>27.61</v>
       </c>
       <c r="I33">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
       <c r="M33">
         <v>1.77</v>
@@ -3886,15 +3931,21 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31958V1125796</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kraftforsyningen (Tomasjord)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D34">
         <v>2025</v>
@@ -3906,7 +3957,7 @@
         <v>3.71</v>
       </c>
       <c r="G34">
-        <v>8.8800000000000008</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H34">
         <v>-4.84</v>
@@ -3914,16 +3965,25 @@
       <c r="I34">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
+      <c r="M34">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>03836V1125958</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Kvaløysletta nord</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fv. 863</t>
+        </is>
       </c>
       <c r="D35">
         <v>2023</v>
@@ -3938,7 +3998,7 @@
         <v>-4.72</v>
       </c>
       <c r="H35">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="I35">
         <v>-7.83</v>
@@ -3965,15 +4025,21 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03836V1125958</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kvaløysletta nord</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fv. 863</t>
+        </is>
       </c>
       <c r="D36">
         <v>2024</v>
@@ -3997,21 +4063,27 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>03836V1125958</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Kvaløysletta nord</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fv. 863</t>
+        </is>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="F37">
-        <v>-8.0399999999999991</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="G37">
         <v>-4.26</v>
@@ -4020,15 +4092,21 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>62639V2268190</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kvaløysletta sør</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D38">
         <v>2023</v>
@@ -4043,7 +4121,7 @@
         <v>-8.09</v>
       </c>
       <c r="H38">
-        <v>-8.2899999999999991</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="I38">
         <v>-8.99</v>
@@ -4070,15 +4148,21 @@
         <v>-2.88</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>62639V2268190</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kvaløysletta sør</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D39">
         <v>2024</v>
@@ -4120,15 +4204,21 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>70</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>62639V2268190</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Kvaløysletta sør</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D40">
         <v>2025</v>
@@ -4157,16 +4247,25 @@
       <c r="L40">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" t="s">
-        <v>131</v>
+      <c r="M40">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>47285V3050559</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Kvaløyvegen</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>kv. 20600</t>
+        </is>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -4193,7 +4292,7 @@
         <v>-0.01</v>
       </c>
       <c r="L41">
-        <v>-4.6399999999999997</v>
+        <v>-4.64</v>
       </c>
       <c r="M41">
         <v>-7.45</v>
@@ -4208,15 +4307,21 @@
         <v>-3.01</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>47285V3050559</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Kvaløyvegen</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>kv. 20600</t>
+        </is>
       </c>
       <c r="D42">
         <v>2024</v>
@@ -4246,7 +4351,7 @@
         <v>10.73</v>
       </c>
       <c r="M42">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="N42">
         <v>4.84</v>
@@ -4258,15 +4363,21 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>47285V3050559</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Kvaløyvegen</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>kv. 20600</t>
+        </is>
       </c>
       <c r="D43">
         <v>2025</v>
@@ -4278,15 +4389,21 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>52043V1664653</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Langnestunnelen</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D44">
         <v>2023</v>
@@ -4304,7 +4421,7 @@
         <v>-11.34</v>
       </c>
       <c r="I44">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="J44">
         <v>-2.76</v>
@@ -4325,15 +4442,21 @@
         <v>-22.39</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>52043V1664653</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Langnestunnelen</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -4372,29 +4495,41 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>70</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>52043V1664653</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Langnestunnelen</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>116</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>13980V1126353</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lunheim</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>fv. 864</t>
+        </is>
       </c>
       <c r="D47">
         <v>2023</v>
@@ -4430,21 +4565,27 @@
         <v>-2.82</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s">
-        <v>116</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13980V1126353</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lunheim</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>fv. 864</t>
+        </is>
       </c>
       <c r="D48">
         <v>2024</v>
       </c>
       <c r="E48">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F48">
         <v>3.16</v>
@@ -4480,15 +4621,21 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13980V1126353</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lunheim</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>fv. 864</t>
+        </is>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -4514,16 +4661,25 @@
       <c r="L49">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
+      <c r="M49">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49212V1126027</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Postterminalen</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D50">
         <v>2023</v>
@@ -4544,13 +4700,13 @@
         <v>-3.22</v>
       </c>
       <c r="J50">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="K50">
         <v>6.54</v>
       </c>
       <c r="L50">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="M50">
         <v>-0.93</v>
@@ -4565,21 +4721,27 @@
         <v>-6.83</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49212V1126027</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Postterminalen</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D51">
         <v>2024</v>
       </c>
       <c r="E51">
-        <v>9.7100000000000009</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F51">
         <v>11.69</v>
@@ -4606,7 +4768,7 @@
         <v>0.97</v>
       </c>
       <c r="N51">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="O51">
         <v>2.68</v>
@@ -4615,29 +4777,41 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>70</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>49212V1126027</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Postterminalen</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" t="s">
-        <v>136</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>34219V1109528</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Prestvannet</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>kv. 21200</t>
+        </is>
       </c>
       <c r="D53">
         <v>2023</v>
@@ -4646,7 +4820,7 @@
         <v>-7.14</v>
       </c>
       <c r="F53">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="G53">
         <v>-15.84</v>
@@ -4655,7 +4829,7 @@
         <v>-13.05</v>
       </c>
       <c r="I53">
-        <v>-18.420000000000002</v>
+        <v>-18.42</v>
       </c>
       <c r="J53">
         <v>-16.47</v>
@@ -4664,13 +4838,13 @@
         <v>-11.38</v>
       </c>
       <c r="L53">
-        <v>-8.9700000000000006</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="M53">
         <v>-3.73</v>
       </c>
       <c r="N53">
-        <v>-5.1100000000000003</v>
+        <v>-5.11</v>
       </c>
       <c r="O53">
         <v>0.09</v>
@@ -4679,15 +4853,21 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>34219V1109528</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Prestvannet</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>kv. 21200</t>
+        </is>
       </c>
       <c r="D54">
         <v>2024</v>
@@ -4699,7 +4879,7 @@
         <v>12.02</v>
       </c>
       <c r="G54">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="H54">
         <v>23.1</v>
@@ -4708,10 +4888,10 @@
         <v>12.47</v>
       </c>
       <c r="J54">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K54">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="L54">
         <v>0.52</v>
@@ -4723,21 +4903,27 @@
         <v>4.01</v>
       </c>
       <c r="O54">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="P54">
         <v>0.86</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>136</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>34219V1109528</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Prestvannet</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>kv. 21200</t>
+        </is>
       </c>
       <c r="D55">
         <v>2025</v>
@@ -4755,15 +4941,21 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>74530V2378328</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ringvegen</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>kv. 30790</t>
+        </is>
       </c>
       <c r="D56">
         <v>2023</v>
@@ -4796,7 +4988,7 @@
         <v>-11.68</v>
       </c>
       <c r="N56">
-        <v>-9.7200000000000006</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="O56">
         <v>-10.97</v>
@@ -4805,15 +4997,21 @@
         <v>-8.93</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>141</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>74530V2378328</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ringvegen</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>kv. 30790</t>
+        </is>
       </c>
       <c r="D57">
         <v>2024</v>
@@ -4825,7 +5023,7 @@
         <v>5.65</v>
       </c>
       <c r="G57">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="H57">
         <v>16.23</v>
@@ -4837,7 +5035,7 @@
         <v>-3.41</v>
       </c>
       <c r="K57">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L57">
         <v>6.4</v>
@@ -4846,7 +5044,7 @@
         <v>7.95</v>
       </c>
       <c r="N57">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="O57">
         <v>7.26</v>
@@ -4855,21 +5053,27 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" t="s">
-        <v>141</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>74530V2378328</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ringvegen</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>kv. 30790</t>
+        </is>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="F58">
         <v>4.63</v>
@@ -4892,16 +5096,25 @@
       <c r="L58">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
+      <c r="M58">
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>98487V2057940</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ryatunnelen</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
       </c>
       <c r="D59">
         <v>2023</v>
@@ -4931,27 +5144,33 @@
         <v>11.29</v>
       </c>
       <c r="M59">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="N59">
         <v>6.67</v>
       </c>
       <c r="O59">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="P59">
         <v>5.58</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>61</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>98487V2057940</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ryatunnelen</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
       </c>
       <c r="D60">
         <v>2024</v>
@@ -4981,7 +5200,7 @@
         <v>12.16</v>
       </c>
       <c r="M60">
-        <v>9.7799999999999994</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="N60">
         <v>1.08</v>
@@ -4993,15 +5212,21 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>61</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>98487V2057940</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ryatunnelen</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>fv. 858</t>
+        </is>
       </c>
       <c r="D61">
         <v>2025</v>
@@ -5013,7 +5238,7 @@
         <v>3.7</v>
       </c>
       <c r="G61">
-        <v>-8.14</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="H61">
         <v>5.81</v>
@@ -5030,16 +5255,25 @@
       <c r="L61">
         <v>-2.74</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>70</v>
+      <c r="M61">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>02636V1125920</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sandnessundbrua</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D62">
         <v>2023</v>
@@ -5051,7 +5285,7 @@
         <v>-10.3</v>
       </c>
       <c r="G62">
-        <v>-10.220000000000001</v>
+        <v>-10.22</v>
       </c>
       <c r="H62">
         <v>-9.76</v>
@@ -5060,7 +5294,7 @@
         <v>-5.13</v>
       </c>
       <c r="K62">
-        <v>-0.69</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L62">
         <v>-4.55</v>
@@ -5078,15 +5312,21 @@
         <v>-5.34</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" t="s">
-        <v>70</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>02636V1125920</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sandnessundbrua</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D63">
         <v>2024</v>
@@ -5125,15 +5365,21 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>02636V1125920</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sandnessundbrua</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D64">
         <v>2025</v>
@@ -5142,7 +5388,7 @@
         <v>7.95</v>
       </c>
       <c r="F64">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="G64">
         <v>1.02</v>
@@ -5154,7 +5400,7 @@
         <v>2.6</v>
       </c>
       <c r="J64">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="K64">
         <v>3.33</v>
@@ -5162,44 +5408,65 @@
       <c r="L64">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
+      <c r="M64">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>61732V1126304</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sandvikeidet</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D65">
         <v>2023</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" t="s">
-        <v>20</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>61732V1126304</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sandvikeidet</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D66">
         <v>2024</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>61732V1126304</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sandvikeidet</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D67">
         <v>2025</v>
@@ -5220,7 +5487,7 @@
         <v>-1.2</v>
       </c>
       <c r="J67">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="K67">
         <v>3.32</v>
@@ -5229,15 +5496,21 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>70</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>71291V1125935</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sentrumstangenten</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D68">
         <v>2023</v>
@@ -5267,43 +5540,61 @@
         <v>-6.66</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>70</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>71291V1125935</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sentrumstangenten</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D69">
         <v>2024</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>70</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>71291V1125935</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sentrumstangenten</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>70</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>79743V1125914</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Tromsøbrua</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D71">
         <v>2023</v>
@@ -5345,15 +5636,21 @@
         <v>-10.61</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>70</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>79743V1125914</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tromsøbrua</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D72">
         <v>2024</v>
@@ -5386,15 +5683,21 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>70</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>79743V1125914</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Tromsøbrua</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>fv. 862</t>
+        </is>
       </c>
       <c r="D73">
         <v>2025</v>
@@ -5414,16 +5717,25 @@
       <c r="I73">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" t="s">
-        <v>20</v>
+      <c r="M73">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>68511V2673383</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D74">
         <v>2023</v>
@@ -5453,15 +5765,21 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" t="s">
-        <v>20</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>68511V2673383</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D75">
         <v>2024</v>
@@ -5491,15 +5809,21 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" t="s">
-        <v>20</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>68511V2673383</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D76">
         <v>2025</v>
@@ -5519,16 +5843,25 @@
       <c r="I76">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" t="s">
-        <v>20</v>
+      <c r="M76">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>31157V2782679</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D77">
         <v>2023</v>
@@ -5558,27 +5891,33 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" t="s">
-        <v>20</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>31157V2782679</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D78">
         <v>2024</v>
       </c>
       <c r="E78">
-        <v>9.39</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F78">
         <v>10.75</v>
       </c>
       <c r="G78">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="H78">
         <v>24.95</v>
@@ -5593,18 +5932,24 @@
         <v>6.87</v>
       </c>
       <c r="P78">
-        <v>9.3699999999999992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
+        <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>31157V2782679</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tromsøysundtunnelen T2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D79">
         <v>2025</v>
@@ -5613,7 +5958,7 @@
         <v>9.1</v>
       </c>
       <c r="F79">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="G79">
         <v>21.22</v>
@@ -5624,16 +5969,25 @@
       <c r="I79">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
+      <c r="M79">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>64888V1125917</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Tverrforbindelsen</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D80">
         <v>2023</v>
@@ -5642,7 +5996,7 @@
         <v>-1.79</v>
       </c>
       <c r="F80">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="G80">
         <v>-14.03</v>
@@ -5657,7 +6011,7 @@
         <v>-5.79</v>
       </c>
       <c r="K80">
-        <v>-4.0599999999999996</v>
+        <v>-4.06</v>
       </c>
       <c r="L80">
         <v>4.53</v>
@@ -5672,24 +6026,30 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>20</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>64888V1125917</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Tverrforbindelsen</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D81">
         <v>2024</v>
       </c>
       <c r="E81">
-        <v>34.119999999999997</v>
+        <v>34.12</v>
       </c>
       <c r="F81">
-        <v>34.119999999999997</v>
+        <v>34.12</v>
       </c>
       <c r="G81">
         <v>22.83</v>
@@ -5716,18 +6076,24 @@
         <v>3.2</v>
       </c>
       <c r="P81">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>20</v>
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>64888V1125917</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Tverrforbindelsen</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
       </c>
       <c r="D82">
         <v>2025</v>
@@ -5736,7 +6102,7 @@
         <v>5.22</v>
       </c>
       <c r="F82">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="K82">
         <v>-2.92</v>
@@ -5748,55 +6114,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year_base</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>year_from_to</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>index_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>area_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -5806,38 +6198,46 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" t="s">
-        <v>180</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2019-2022</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="I2">
         <v>-4.2</v>
       </c>
       <c r="J2">
-        <v>0.87236538200474967</v>
+        <v>0.8723653820047497</v>
       </c>
       <c r="K2">
         <v>-6.1</v>
       </c>
       <c r="L2">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.3</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -5847,26 +6247,32 @@
       <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
       <c r="H3">
-        <v>0.93779999999999997</v>
+        <v>0.9378</v>
       </c>
       <c r="I3">
         <v>-6.2</v>
       </c>
       <c r="J3">
-        <v>1.1870516402460829</v>
+        <v>1.187051640246083</v>
       </c>
       <c r="K3">
         <v>-8.5</v>
@@ -5874,11 +6280,13 @@
       <c r="L3">
         <v>-3.9</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -5888,20 +6296,26 @@
       <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" t="s">
-        <v>180</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="G4">
         <v>22</v>
       </c>
       <c r="H4">
-        <v>1.0430999999999999</v>
+        <v>1.0431</v>
       </c>
       <c r="I4">
         <v>4.3</v>
@@ -5915,11 +6329,13 @@
       <c r="L4">
         <v>8.4</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -5927,40 +6343,48 @@
         <v>2025</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>184</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jan-sep</t>
+        </is>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>1.0088999999999999</v>
+        <v>1.0117</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
-        <v>1.044728813115509</v>
+        <v>1.004318564843871</v>
       </c>
       <c r="K5">
-        <v>-1.1000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="L5">
-        <v>2.9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -5970,38 +6394,46 @@
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>180</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="G6">
         <v>26</v>
       </c>
       <c r="H6">
-        <v>0.97821917999999985</v>
+        <v>0.9782191799999999</v>
       </c>
       <c r="I6">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="J6">
-        <v>2.3113145162169899</v>
+        <v>2.31131451621699</v>
       </c>
       <c r="K6">
         <v>-6.7</v>
       </c>
       <c r="L6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6011,23 +6443,29 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" t="s">
-        <v>180</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2019-2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="H7">
-        <v>0.89841239999999989</v>
+        <v>0.8984123999999999</v>
       </c>
       <c r="I7">
         <v>-10.15876000000001</v>
       </c>
       <c r="J7">
-        <v>1.4009337412599969</v>
+        <v>1.400933741259997</v>
       </c>
       <c r="K7">
         <v>-12.9</v>
@@ -6035,11 +6473,13 @@
       <c r="L7">
         <v>-7.4</v>
       </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -6049,23 +6489,29 @@
       <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" t="s">
-        <v>180</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2019-2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>chained</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jan-des</t>
+        </is>
       </c>
       <c r="H8">
         <v>0.9371339744399998</v>
       </c>
       <c r="I8">
-        <v>-6.2866025560000196</v>
+        <v>-6.28660255600002</v>
       </c>
       <c r="J8">
-        <v>2.3730767603272249</v>
+        <v>2.373076760327225</v>
       </c>
       <c r="K8">
         <v>-10.9</v>
@@ -6073,8 +6519,10 @@
       <c r="L8">
         <v>-1.6</v>
       </c>
-      <c r="M8" t="s">
-        <v>22</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6083,63 +6531,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index_i</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>index_p</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_trp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n_eff</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sd_sample_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>index_period</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>month_object</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>month_n</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>window</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>0.90494651516371605</v>
+        <v>0.904946515163716</v>
       </c>
       <c r="B2">
-        <v>-9.5053484836283957</v>
+        <v>-9.505348483628396</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -6148,10 +6622,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E2">
-        <v>4.5526755589707566</v>
+        <v>4.552675558970757</v>
       </c>
       <c r="F2">
-        <v>1.5473922003224381</v>
+        <v>1.547392200322438</v>
       </c>
       <c r="G2">
         <v>-12.5</v>
@@ -6159,8 +6633,10 @@
       <c r="H2">
         <v>-6.5</v>
       </c>
-      <c r="I2" t="s">
-        <v>196</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2019 - (jan 2023 - des 2023)</t>
+        </is>
       </c>
       <c r="J2" s="2">
         <v>45261</v>
@@ -6171,16 +6647,18 @@
       <c r="L2">
         <v>2023</v>
       </c>
-      <c r="M2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>0.90973667258673008</v>
+        <v>0.9097366725867301</v>
       </c>
       <c r="B3">
-        <v>-9.0263327413269927</v>
+        <v>-9.026332741326993</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -6189,7 +6667,7 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E3">
-        <v>4.8982041275766024</v>
+        <v>4.898204127576602</v>
       </c>
       <c r="F3">
         <v>1.634591048341778</v>
@@ -6200,8 +6678,10 @@
       <c r="H3">
         <v>-5.8</v>
       </c>
-      <c r="I3" t="s">
-        <v>198</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2019 - (feb 2023 - jan 2024)</t>
+        </is>
       </c>
       <c r="J3" s="2">
         <v>45292</v>
@@ -6212,16 +6692,18 @@
       <c r="L3">
         <v>2024</v>
       </c>
-      <c r="M3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
-        <v>0.91608911220031397</v>
+        <v>0.916089112200314</v>
       </c>
       <c r="B4">
-        <v>-8.3910887799686034</v>
+        <v>-8.391088779968603</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -6233,16 +6715,18 @@
         <v>5.459182164715461</v>
       </c>
       <c r="F4">
-        <v>1.7783036434063071</v>
+        <v>1.778303643406307</v>
       </c>
       <c r="G4">
         <v>-11.9</v>
       </c>
       <c r="H4">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="I4" t="s">
-        <v>199</v>
+        <v>-4.9</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2019 - (mar 2023 - feb 2024)</t>
+        </is>
       </c>
       <c r="J4" s="2">
         <v>45323</v>
@@ -6253,16 +6737,18 @@
       <c r="L4">
         <v>2024</v>
       </c>
-      <c r="M4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>0.91713793103985364</v>
+        <v>0.9171379310398536</v>
       </c>
       <c r="B5">
-        <v>-8.2862068960146367</v>
+        <v>-8.286206896014637</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -6271,10 +6757,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E5">
-        <v>6.0392056283827014</v>
+        <v>6.039205628382701</v>
       </c>
       <c r="F5">
-        <v>1.9276704039709751</v>
+        <v>1.927670403970975</v>
       </c>
       <c r="G5">
         <v>-12.1</v>
@@ -6282,8 +6768,10 @@
       <c r="H5">
         <v>-4.5</v>
       </c>
-      <c r="I5" t="s">
-        <v>200</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2019 - (apr 2023 - mar 2024)</t>
+        </is>
       </c>
       <c r="J5" s="2">
         <v>45352</v>
@@ -6294,16 +6782,18 @@
       <c r="L5">
         <v>2024</v>
       </c>
-      <c r="M5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>0.93009982438734873</v>
+        <v>0.9300998243873487</v>
       </c>
       <c r="B6">
-        <v>-6.9900175612651267</v>
+        <v>-6.990017561265127</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -6312,10 +6802,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E6">
-        <v>6.6048339855492486</v>
+        <v>6.604833985549249</v>
       </c>
       <c r="F6">
-        <v>2.0803013591458699</v>
+        <v>2.08030135914587</v>
       </c>
       <c r="G6">
         <v>-11.1</v>
@@ -6323,8 +6813,10 @@
       <c r="H6">
         <v>-2.9</v>
       </c>
-      <c r="I6" t="s">
-        <v>201</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2019 - (mai 2023 - apr 2024)</t>
+        </is>
       </c>
       <c r="J6" s="2">
         <v>45383</v>
@@ -6335,13 +6827,15 @@
       <c r="L6">
         <v>2024</v>
       </c>
-      <c r="M6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>0.93468900900398932</v>
+        <v>0.9346890090039893</v>
       </c>
       <c r="B7">
         <v>-6.531099099601068</v>
@@ -6353,10 +6847,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E7">
-        <v>7.3473581533016086</v>
+        <v>7.347358153301609</v>
       </c>
       <c r="F7">
-        <v>2.2786249577731099</v>
+        <v>2.27862495777311</v>
       </c>
       <c r="G7">
         <v>-11</v>
@@ -6364,8 +6858,10 @@
       <c r="H7">
         <v>-2.1</v>
       </c>
-      <c r="I7" t="s">
-        <v>202</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2019 - (jun 2023 - mai 2024)</t>
+        </is>
       </c>
       <c r="J7" s="2">
         <v>45413</v>
@@ -6376,16 +6872,18 @@
       <c r="L7">
         <v>2024</v>
       </c>
-      <c r="M7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>0.93381619413891825</v>
+        <v>0.9338161941389183</v>
       </c>
       <c r="B8">
-        <v>-6.6183805861081746</v>
+        <v>-6.618380586108175</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -6394,10 +6892,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E8">
-        <v>8.1960896203302624</v>
+        <v>8.196089620330262</v>
       </c>
       <c r="F8">
-        <v>2.5065052603931459</v>
+        <v>2.506505260393146</v>
       </c>
       <c r="G8">
         <v>-11.5</v>
@@ -6405,8 +6903,10 @@
       <c r="H8">
         <v>-1.7</v>
       </c>
-      <c r="I8" t="s">
-        <v>203</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2019 - (jul 2023 - jun 2024)</t>
+        </is>
       </c>
       <c r="J8" s="2">
         <v>45444</v>
@@ -6417,37 +6917,41 @@
       <c r="L8">
         <v>2024</v>
       </c>
-      <c r="M8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>0.95784137920206591</v>
+        <v>0.9578413792020659</v>
       </c>
       <c r="B9">
-        <v>-4.2158620797934088</v>
+        <v>-4.215862079793409</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>11.288449380627259</v>
+        <v>11.28844938062726</v>
       </c>
       <c r="E9">
-        <v>9.2491239113519939</v>
+        <v>9.249123911351994</v>
       </c>
       <c r="F9">
-        <v>2.7778334597495311</v>
+        <v>2.777833459749531</v>
       </c>
       <c r="G9">
-        <v>-9.6999999999999993</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H9">
         <v>1.2</v>
       </c>
-      <c r="I9" t="s">
-        <v>204</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2019 - (aug 2023 - jul 2024)</t>
+        </is>
       </c>
       <c r="J9" s="2">
         <v>45474</v>
@@ -6458,37 +6962,41 @@
       <c r="L9">
         <v>2024</v>
       </c>
-      <c r="M9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>0.96229902338767959</v>
+        <v>0.9622990233876796</v>
       </c>
       <c r="B10">
-        <v>-3.7700976612320409</v>
+        <v>-3.770097661232041</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10">
-        <v>11.288449380627259</v>
+        <v>11.28844938062726</v>
       </c>
       <c r="E10">
-        <v>10.247954254335941</v>
+        <v>10.24795425433594</v>
       </c>
       <c r="F10">
-        <v>3.0507160561087252</v>
+        <v>3.050716056108725</v>
       </c>
       <c r="G10">
-        <v>-9.6999999999999993</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I10" t="s">
-        <v>205</v>
+        <v>2.2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2019 - (sep 2023 - aug 2024)</t>
+        </is>
       </c>
       <c r="J10" s="2">
         <v>45505</v>
@@ -6499,16 +7007,18 @@
       <c r="L10">
         <v>2024</v>
       </c>
-      <c r="M10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>0.96312664660027625</v>
+        <v>0.9631266466002762</v>
       </c>
       <c r="B11">
-        <v>-3.6873353399723752</v>
+        <v>-3.687335339972375</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -6517,19 +7027,21 @@
         <v>12.68580614598074</v>
       </c>
       <c r="E11">
-        <v>10.026066361620471</v>
+        <v>10.02606636162047</v>
       </c>
       <c r="F11">
-        <v>2.8358649386893839</v>
+        <v>2.835864938689384</v>
       </c>
       <c r="G11">
-        <v>-9.1999999999999993</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H11">
         <v>1.9</v>
       </c>
-      <c r="I11" t="s">
-        <v>206</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2019 - (okt 2023 - sep 2024)</t>
+        </is>
       </c>
       <c r="J11" s="2">
         <v>45536</v>
@@ -6540,37 +7052,41 @@
       <c r="L11">
         <v>2024</v>
       </c>
-      <c r="M11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>0.96719899211943183</v>
+        <v>0.9671989921194318</v>
       </c>
       <c r="B12">
-        <v>-3.2801007880568172</v>
+        <v>-3.280100788056817</v>
       </c>
       <c r="C12">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E12">
-        <v>10.534246009730341</v>
+        <v>10.53424600973034</v>
       </c>
       <c r="F12">
-        <v>3.0532258156278811</v>
+        <v>3.053225815627881</v>
       </c>
       <c r="G12">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="H12">
         <v>2.7</v>
       </c>
-      <c r="I12" t="s">
-        <v>207</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2019 - (nov 2023 - okt 2024)</t>
+        </is>
       </c>
       <c r="J12" s="2">
         <v>45566</v>
@@ -6581,13 +7097,15 @@
       <c r="L12">
         <v>2024</v>
       </c>
-      <c r="M12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>0.96812057519612682</v>
+        <v>0.9681205751961268</v>
       </c>
       <c r="B13">
         <v>-3.187942480387318</v>
@@ -6596,22 +7114,24 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E13">
-        <v>10.768194774979531</v>
+        <v>10.76819477497953</v>
       </c>
       <c r="F13">
-        <v>3.1156844257895489</v>
+        <v>3.115684425789549</v>
       </c>
       <c r="G13">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="H13">
         <v>2.9</v>
       </c>
-      <c r="I13" t="s">
-        <v>208</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2019 - (des 2023 - nov 2024)</t>
+        </is>
       </c>
       <c r="J13" s="2">
         <v>45597</v>
@@ -6622,37 +7142,41 @@
       <c r="L13">
         <v>2024</v>
       </c>
-      <c r="M13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>0.96995825711432926</v>
+        <v>0.9699582571143293</v>
       </c>
       <c r="B14">
-        <v>-3.0041742885670741</v>
+        <v>-3.004174288567074</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E14">
         <v>11.00082216248431</v>
       </c>
       <c r="F14">
-        <v>3.1781215596377872</v>
+        <v>3.178121559637787</v>
       </c>
       <c r="G14">
-        <v>-9.1999999999999993</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="H14">
         <v>3.2</v>
       </c>
-      <c r="I14" t="s">
-        <v>209</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2019 - (jan 2024 - des 2024)</t>
+        </is>
       </c>
       <c r="J14" s="2">
         <v>45627</v>
@@ -6663,25 +7187,27 @@
       <c r="L14">
         <v>2024</v>
       </c>
-      <c r="M14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
-        <v>0.97393156814037884</v>
+        <v>0.9739315681403788</v>
       </c>
       <c r="B15">
-        <v>-2.6068431859621159</v>
+        <v>-2.606843185962116</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E15">
-        <v>11.187955013673029</v>
+        <v>11.18795501367303</v>
       </c>
       <c r="F15">
         <v>3.229032432529289</v>
@@ -6692,8 +7218,10 @@
       <c r="H15">
         <v>3.7</v>
       </c>
-      <c r="I15" t="s">
-        <v>210</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2019 - (feb 2024 - jan 2025)</t>
+        </is>
       </c>
       <c r="J15" s="2">
         <v>45658</v>
@@ -6704,13 +7232,15 @@
       <c r="L15">
         <v>2025</v>
       </c>
-      <c r="M15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
-        <v>0.97629689060304059</v>
+        <v>0.9762968906030406</v>
       </c>
       <c r="B16">
         <v>-2.370310939695941</v>
@@ -6719,22 +7249,24 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E16">
-        <v>11.403639286782109</v>
+        <v>11.40363928678211</v>
       </c>
       <c r="F16">
-        <v>3.2872096404758202</v>
+        <v>3.28720964047582</v>
       </c>
       <c r="G16">
-        <v>-8.8000000000000007</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="H16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I16" t="s">
-        <v>211</v>
+        <v>4.1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2019 - (mar 2024 - feb 2025)</t>
+        </is>
       </c>
       <c r="J16" s="2">
         <v>45689</v>
@@ -6745,22 +7277,24 @@
       <c r="L16">
         <v>2025</v>
       </c>
-      <c r="M16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
-        <v>0.97890451900362274</v>
+        <v>0.9789045190036227</v>
       </c>
       <c r="B17">
-        <v>-2.1095480996377258</v>
+        <v>-2.109548099637726</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E17">
         <v>12.09764063981533</v>
@@ -6774,8 +7308,10 @@
       <c r="H17">
         <v>4.7</v>
       </c>
-      <c r="I17" t="s">
-        <v>212</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2019 - (apr 2024 - mar 2025)</t>
+        </is>
       </c>
       <c r="J17" s="2">
         <v>45717</v>
@@ -6786,13 +7322,15 @@
       <c r="L17">
         <v>2025</v>
       </c>
-      <c r="M17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
-        <v>0.97307801505217939</v>
+        <v>0.9730780150521794</v>
       </c>
       <c r="B18">
         <v>-2.692198494782061</v>
@@ -6801,22 +7339,24 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E18">
         <v>12.60724845293767</v>
       </c>
       <c r="F18">
-        <v>3.6091941717335789</v>
+        <v>3.609194171733579</v>
       </c>
       <c r="G18">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I18" t="s">
-        <v>213</v>
+        <v>4.4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2019 - (mai 2024 - apr 2025)</t>
+        </is>
       </c>
       <c r="J18" s="2">
         <v>45748</v>
@@ -6827,37 +7367,41 @@
       <c r="L18">
         <v>2025</v>
       </c>
-      <c r="M18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
-        <v>0.97475582437473618</v>
+        <v>0.9747558243747362</v>
       </c>
       <c r="B19">
-        <v>-2.5244175625263821</v>
+        <v>-2.524417562526382</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>11.917539415803059</v>
+        <v>11.91753941580306</v>
       </c>
       <c r="E19">
         <v>12.78229787561941</v>
       </c>
       <c r="F19">
-        <v>3.6566766286929342</v>
+        <v>3.656676628692934</v>
       </c>
       <c r="G19">
-        <v>-9.6999999999999993</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="H19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I19" t="s">
-        <v>214</v>
+        <v>4.6</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2019 - (jun 2024 - mai 2025)</t>
+        </is>
       </c>
       <c r="J19" s="2">
         <v>45778</v>
@@ -6868,25 +7412,27 @@
       <c r="L19">
         <v>2025</v>
       </c>
-      <c r="M19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
-        <v>0.95256087615563445</v>
+        <v>0.9525608761556345</v>
       </c>
       <c r="B20">
-        <v>-4.7439123844365554</v>
+        <v>-4.743912384436555</v>
       </c>
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
-        <v>9.4611944699944992</v>
+        <v>9.461194469994499</v>
       </c>
       <c r="E20">
-        <v>10.610004521401081</v>
+        <v>10.61000452140108</v>
       </c>
       <c r="F20">
         <v>3.416598840542858</v>
@@ -6897,8 +7443,10 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
-        <v>215</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2019 - (jul 2024 - jun 2025)</t>
+        </is>
       </c>
       <c r="J20" s="2">
         <v>45809</v>
@@ -6909,28 +7457,30 @@
       <c r="L20">
         <v>2025</v>
       </c>
-      <c r="M20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
-        <v>0.95000116136004242</v>
+        <v>0.9500011613600424</v>
       </c>
       <c r="B21">
-        <v>-4.9998838639957572</v>
+        <v>-4.999883863995757</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>9.4611944699944992</v>
+        <v>9.461194469994499</v>
       </c>
       <c r="E21">
-        <v>10.311447468057279</v>
+        <v>10.31144746805728</v>
       </c>
       <c r="F21">
-        <v>3.3261320744213592</v>
+        <v>3.326132074421359</v>
       </c>
       <c r="G21">
         <v>-11.5</v>
@@ -6938,8 +7488,10 @@
       <c r="H21">
         <v>1.5</v>
       </c>
-      <c r="I21" t="s">
-        <v>216</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2019 - (aug 2024 - jul 2025)</t>
+        </is>
       </c>
       <c r="J21" s="2">
         <v>45839</v>
@@ -6950,25 +7502,27 @@
       <c r="L21">
         <v>2025</v>
       </c>
-      <c r="M21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
-        <v>0.95125970311655739</v>
+        <v>0.9512597031165574</v>
       </c>
       <c r="B22">
-        <v>-4.8740296883442618</v>
+        <v>-4.874029688344262</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>9.4611944699944992</v>
+        <v>9.461194469994499</v>
       </c>
       <c r="E22">
-        <v>10.222737148574311</v>
+        <v>10.22273714857431</v>
       </c>
       <c r="F22">
         <v>3.299761208726788</v>
@@ -6979,8 +7533,10 @@
       <c r="H22">
         <v>1.6</v>
       </c>
-      <c r="I22" t="s">
-        <v>217</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2019 - (sep 2024 - aug 2025)</t>
+        </is>
       </c>
       <c r="J22" s="2">
         <v>45870</v>
@@ -6991,377 +7547,505 @@
       <c r="L22">
         <v>2025</v>
       </c>
-      <c r="M22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
-        <v>0.94071668550025789</v>
+        <v>0.9548812393557694</v>
       </c>
       <c r="B23">
-        <v>-5.9283314499742108</v>
+        <v>-4.51187606442306</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>9.8514634719333696</v>
+        <v>9.461194469994499</v>
       </c>
       <c r="E23">
-        <v>7.3292733906947056</v>
+        <v>10.43624415458974</v>
       </c>
       <c r="F23">
-        <v>2.395542921504799</v>
+        <v>3.364825111190881</v>
       </c>
       <c r="G23">
-        <v>-10.6</v>
+        <v>-11.1</v>
       </c>
       <c r="H23">
-        <v>-1.2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>218</v>
+        <v>2.1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2019 - (okt 2024 - sep 2025)</t>
+        </is>
       </c>
       <c r="J23" s="2">
-        <v>45627</v>
+        <v>45901</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L23">
-        <v>2024</v>
-      </c>
-      <c r="M23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>12_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
-        <v>0.94488852251603161</v>
+        <v>0.9407166855002579</v>
       </c>
       <c r="B24">
-        <v>-5.511147748396839</v>
+        <v>-5.928331449974211</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>9.8514634719333696</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E24">
-        <v>7.7512539669989708</v>
+        <v>7.329273390694706</v>
       </c>
       <c r="F24">
-        <v>2.5175465032292998</v>
+        <v>2.395542921504799</v>
       </c>
       <c r="G24">
-        <v>-10.4</v>
+        <v>-10.6</v>
       </c>
       <c r="H24">
-        <v>-0.6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>220</v>
+        <v>-1.2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2019 - (jan 2023 - des 2024)</t>
+        </is>
       </c>
       <c r="J24" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L24">
-        <v>2025</v>
-      </c>
-      <c r="M24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
-        <v>0.94936330793778034</v>
+        <v>0.9448885225160316</v>
       </c>
       <c r="B25">
-        <v>-5.0636692062219657</v>
+        <v>-5.511147748396839</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25">
-        <v>9.8514634719333696</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E25">
-        <v>8.1995255075063955</v>
+        <v>7.751253966998971</v>
       </c>
       <c r="F25">
-        <v>2.6478756921124211</v>
+        <v>2.5175465032293</v>
       </c>
       <c r="G25">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="H25">
-        <v>0.1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>221</v>
+        <v>-0.6</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2019 - (feb 2023 - jan 2025)</t>
+        </is>
       </c>
       <c r="J25" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>2025</v>
       </c>
-      <c r="M25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
-        <v>0.95017177001405828</v>
+        <v>0.9493633079377803</v>
       </c>
       <c r="B26">
-        <v>-4.9828229985941714</v>
+        <v>-5.063669206221966</v>
       </c>
       <c r="C26">
         <v>14</v>
       </c>
       <c r="D26">
-        <v>9.8514634719333696</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E26">
-        <v>8.6161611123092428</v>
+        <v>8.199525507506396</v>
       </c>
       <c r="F26">
-        <v>2.7686196290465941</v>
+        <v>2.647875692112421</v>
       </c>
       <c r="G26">
-        <v>-10.4</v>
+        <v>-10.3</v>
       </c>
       <c r="H26">
-        <v>0.4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>222</v>
+        <v>0.1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2019 - (mar 2023 - feb 2025)</t>
+        </is>
       </c>
       <c r="J26" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>2025</v>
       </c>
-      <c r="M26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
-        <v>0.95387659155363758</v>
+        <v>0.9501717700140583</v>
       </c>
       <c r="B27">
-        <v>-4.6123408446362424</v>
+        <v>-4.982822998594171</v>
       </c>
       <c r="C27">
         <v>14</v>
       </c>
       <c r="D27">
-        <v>9.8514634719333696</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E27">
-        <v>9.1904690920646672</v>
+        <v>8.616161112309243</v>
       </c>
       <c r="F27">
-        <v>2.936645120593631</v>
+        <v>2.768619629046594</v>
       </c>
       <c r="G27">
         <v>-10.4</v>
       </c>
       <c r="H27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I27" t="s">
-        <v>223</v>
+        <v>0.4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2019 - (apr 2023 - mar 2025)</t>
+        </is>
       </c>
       <c r="J27" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>2025</v>
       </c>
-      <c r="M27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
-        <v>0.95665421826875374</v>
+        <v>0.9538765915536376</v>
       </c>
       <c r="B28">
-        <v>-4.3345781731246262</v>
+        <v>-4.612340844636242</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
       <c r="D28">
-        <v>9.8514634719333696</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E28">
-        <v>9.6605276527218624</v>
+        <v>9.190469092064667</v>
       </c>
       <c r="F28">
-        <v>3.0747117640795829</v>
+        <v>2.936645120593631</v>
       </c>
       <c r="G28">
         <v>-10.4</v>
       </c>
       <c r="H28">
-        <v>1.7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>224</v>
+        <v>1.1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2019 - (mai 2023 - apr 2025)</t>
+        </is>
       </c>
       <c r="J28" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <v>2025</v>
       </c>
-      <c r="M28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
-        <v>0.93379955979880191</v>
+        <v>0.9566542182687537</v>
       </c>
       <c r="B29">
-        <v>-6.6200440201198081</v>
+        <v>-4.334578173124626</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>8.1765392256492415</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E29">
-        <v>7.9106263041601999</v>
+        <v>9.660527652721862</v>
       </c>
       <c r="F29">
-        <v>2.7834546726759068</v>
+        <v>3.074711764079583</v>
       </c>
       <c r="G29">
-        <v>-12.1</v>
+        <v>-10.4</v>
       </c>
       <c r="H29">
-        <v>-1.2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>225</v>
+        <v>1.7</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2019 - (jun 2023 - mai 2025)</t>
+        </is>
       </c>
       <c r="J29" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>2025</v>
       </c>
-      <c r="M29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
-        <v>0.93556784792165426</v>
+        <v>0.9337995597988019</v>
       </c>
       <c r="B30">
-        <v>-6.4432152078345739</v>
+        <v>-6.620044020119808</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>7.4427993952966309</v>
+        <v>8.176539225649242</v>
       </c>
       <c r="E30">
-        <v>8.8808925181641083</v>
+        <v>7.9106263041602</v>
       </c>
       <c r="F30">
-        <v>3.232957748931967</v>
+        <v>2.783454672675907</v>
       </c>
       <c r="G30">
-        <v>-12.8</v>
+        <v>-12.1</v>
       </c>
       <c r="H30">
-        <v>-0.1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>226</v>
+        <v>-1.2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2019 - (jul 2023 - jun 2025)</t>
+        </is>
       </c>
       <c r="J30" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>2025</v>
       </c>
-      <c r="M30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
-        <v>0.94242016875629375</v>
+        <v>0.9355678479216543</v>
       </c>
       <c r="B31">
-        <v>-5.7579831243706252</v>
+        <v>-6.443215207834574</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>8.7617289228210211</v>
+        <v>7.442799395296631</v>
       </c>
       <c r="E31">
-        <v>9.1044892185767079</v>
+        <v>8.880892518164108</v>
       </c>
       <c r="F31">
-        <v>3.0691760262025101</v>
+        <v>3.232957748931967</v>
       </c>
       <c r="G31">
-        <v>-11.8</v>
+        <v>-12.8</v>
       </c>
       <c r="H31">
-        <v>0.3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>227</v>
+        <v>-0.1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2019 - (aug 2023 - jul 2025)</t>
+        </is>
       </c>
       <c r="J31" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31">
         <v>2025</v>
       </c>
-      <c r="M31" t="s">
-        <v>219</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.9424201687562938</v>
+      </c>
+      <c r="B32">
+        <v>-5.757983124370625</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>8.761728922821021</v>
+      </c>
+      <c r="E32">
+        <v>9.104489218576708</v>
+      </c>
+      <c r="F32">
+        <v>3.06917602620251</v>
+      </c>
+      <c r="G32">
+        <v>-11.8</v>
+      </c>
+      <c r="H32">
+        <v>0.3</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2019 - (sep 2023 - aug 2025)</t>
+        </is>
+      </c>
+      <c r="J32" s="2">
+        <v>45870</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>2025</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.9484594993530926</v>
+      </c>
+      <c r="B33">
+        <v>-5.154050064690741</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>9.461194469994499</v>
+      </c>
+      <c r="E33">
+        <v>9.229410045651292</v>
+      </c>
+      <c r="F33">
+        <v>3.0015883470018</v>
+      </c>
+      <c r="G33">
+        <v>-11</v>
+      </c>
+      <c r="H33">
+        <v>0.7</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2019 - (okt 2023 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J33" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>2025</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_indexpoints_tidy/tallmateriale_16952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_16952.xlsx
@@ -2663,15 +2663,6 @@
       <c r="D4">
         <v>2025</v>
       </c>
-      <c r="F4">
-        <v>4.73</v>
-      </c>
-      <c r="G4">
-        <v>12.64</v>
-      </c>
-      <c r="H4">
-        <v>-8.69</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2987,6 +2978,9 @@
       <c r="M13">
         <v>5.6</v>
       </c>
+      <c r="N13">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3146,6 +3140,9 @@
       <c r="M16">
         <v>3.66</v>
       </c>
+      <c r="N16">
+        <v>3.49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3305,6 +3302,9 @@
       <c r="M19">
         <v>-0.87</v>
       </c>
+      <c r="N19">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3590,6 +3590,9 @@
       <c r="M25">
         <v>-2.61</v>
       </c>
+      <c r="N25">
+        <v>-2.89</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3968,6 +3971,9 @@
       <c r="M34">
         <v>4.69</v>
       </c>
+      <c r="N34">
+        <v>5.88</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4250,6 +4256,9 @@
       <c r="M40">
         <v>3.26</v>
       </c>
+      <c r="N40">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4664,6 +4673,9 @@
       <c r="M49">
         <v>5.07</v>
       </c>
+      <c r="N49">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4928,18 +4940,6 @@
       <c r="D55">
         <v>2025</v>
       </c>
-      <c r="E55">
-        <v>0.27</v>
-      </c>
-      <c r="F55">
-        <v>0.92</v>
-      </c>
-      <c r="I55">
-        <v>-7.01</v>
-      </c>
-      <c r="K55">
-        <v>2.41</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5099,6 +5099,9 @@
       <c r="M58">
         <v>-3.25</v>
       </c>
+      <c r="N58">
+        <v>-4.11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5258,6 +5261,9 @@
       <c r="M61">
         <v>0.96</v>
       </c>
+      <c r="N61">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5411,6 +5417,9 @@
       <c r="M64">
         <v>4.34</v>
       </c>
+      <c r="N64">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5720,6 +5729,9 @@
       <c r="M73">
         <v>0.22</v>
       </c>
+      <c r="N73">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5846,6 +5858,9 @@
       <c r="M76">
         <v>9.390000000000001</v>
       </c>
+      <c r="N76">
+        <v>9.93</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5972,6 +5987,9 @@
       <c r="M79">
         <v>10.64</v>
       </c>
+      <c r="N79">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6103,9 +6121,6 @@
       </c>
       <c r="F82">
         <v>4.86</v>
-      </c>
-      <c r="K82">
-        <v>-2.92</v>
       </c>
     </row>
   </sheetData>
@@ -6272,7 +6287,7 @@
         <v>-6.2</v>
       </c>
       <c r="J3">
-        <v>1.187051640246083</v>
+        <v>1.18240265755164</v>
       </c>
       <c r="K3">
         <v>-8.5</v>
@@ -6321,7 +6336,7 @@
         <v>4.3</v>
       </c>
       <c r="J4">
-        <v>2.080944899441648</v>
+        <v>2.077955497173004</v>
       </c>
       <c r="K4">
         <v>0.2</v>
@@ -6343,7 +6358,7 @@
         <v>2025</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6357,26 +6372,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>jan-sep</t>
+          <t>jan-okt</t>
         </is>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>1.0117</v>
+        <v>1.014</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J5">
-        <v>1.004318564843871</v>
+        <v>1.116766126251205</v>
       </c>
       <c r="K5">
         <v>-0.8</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -6419,7 +6434,7 @@
         <v>-2.2</v>
       </c>
       <c r="J6">
-        <v>2.31131451621699</v>
+        <v>2.306349631338904</v>
       </c>
       <c r="K6">
         <v>-6.7</v>
@@ -6465,7 +6480,7 @@
         <v>-10.15876000000001</v>
       </c>
       <c r="J7">
-        <v>1.400933741259997</v>
+        <v>1.397320590274238</v>
       </c>
       <c r="K7">
         <v>-12.9</v>
@@ -6511,7 +6526,7 @@
         <v>-6.28660255600002</v>
       </c>
       <c r="J8">
-        <v>2.373076760327225</v>
+        <v>2.368639008242137</v>
       </c>
       <c r="K8">
         <v>-10.9</v>
@@ -6532,7 +6547,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7600,55 +7615,55 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.9407166855002579</v>
+        <v>0.9568554091875735</v>
       </c>
       <c r="B24">
-        <v>-5.928331449974211</v>
+        <v>-4.314459081242649</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>9.85146347193337</v>
+        <v>9.461194469994499</v>
       </c>
       <c r="E24">
-        <v>7.329273390694706</v>
+        <v>10.62561012946104</v>
       </c>
       <c r="F24">
-        <v>2.395542921504799</v>
+        <v>3.422293990449863</v>
       </c>
       <c r="G24">
-        <v>-10.6</v>
+        <v>-11</v>
       </c>
       <c r="H24">
-        <v>-1.2</v>
+        <v>2.4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2019 - (jan 2023 - des 2024)</t>
+          <t>2019 - (nov 2024 - okt 2025)</t>
         </is>
       </c>
       <c r="J24" s="2">
-        <v>45627</v>
+        <v>45931</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.9448885225160316</v>
+        <v>0.9407166855002579</v>
       </c>
       <c r="B25">
-        <v>-5.511147748396839</v>
+        <v>-5.928331449974211</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -7657,30 +7672,30 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E25">
-        <v>7.751253966998971</v>
+        <v>7.329273390694706</v>
       </c>
       <c r="F25">
-        <v>2.5175465032293</v>
+        <v>2.395542921504799</v>
       </c>
       <c r="G25">
-        <v>-10.4</v>
+        <v>-10.6</v>
       </c>
       <c r="H25">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2019 - (feb 2023 - jan 2025)</t>
+          <t>2019 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J25" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L25">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -7690,10 +7705,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.9493633079377803</v>
+        <v>0.9448885225160316</v>
       </c>
       <c r="B26">
-        <v>-5.063669206221966</v>
+        <v>-5.511147748396839</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -7702,27 +7717,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E26">
-        <v>8.199525507506396</v>
+        <v>7.751253966998971</v>
       </c>
       <c r="F26">
-        <v>2.647875692112421</v>
+        <v>2.5175465032293</v>
       </c>
       <c r="G26">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="H26">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2019 - (mar 2023 - feb 2025)</t>
+          <t>2019 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J26" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>2025</v>
@@ -7735,10 +7750,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.9501717700140583</v>
+        <v>0.9493633079377803</v>
       </c>
       <c r="B27">
-        <v>-4.982822998594171</v>
+        <v>-5.063669206221966</v>
       </c>
       <c r="C27">
         <v>14</v>
@@ -7747,27 +7762,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E27">
-        <v>8.616161112309243</v>
+        <v>8.199525507506396</v>
       </c>
       <c r="F27">
-        <v>2.768619629046594</v>
+        <v>2.647875692112421</v>
       </c>
       <c r="G27">
-        <v>-10.4</v>
+        <v>-10.3</v>
       </c>
       <c r="H27">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2019 - (apr 2023 - mar 2025)</t>
+          <t>2019 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J27" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>2025</v>
@@ -7780,10 +7795,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.9538765915536376</v>
+        <v>0.9501717700140583</v>
       </c>
       <c r="B28">
-        <v>-4.612340844636242</v>
+        <v>-4.982822998594171</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -7792,27 +7807,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E28">
-        <v>9.190469092064667</v>
+        <v>8.616161112309243</v>
       </c>
       <c r="F28">
-        <v>2.936645120593631</v>
+        <v>2.768619629046594</v>
       </c>
       <c r="G28">
         <v>-10.4</v>
       </c>
       <c r="H28">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2019 - (mai 2023 - apr 2025)</t>
+          <t>2019 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J28" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>2025</v>
@@ -7825,10 +7840,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.9566542182687537</v>
+        <v>0.9538765915536376</v>
       </c>
       <c r="B29">
-        <v>-4.334578173124626</v>
+        <v>-4.612340844636242</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -7837,27 +7852,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E29">
-        <v>9.660527652721862</v>
+        <v>9.190469092064667</v>
       </c>
       <c r="F29">
-        <v>3.074711764079583</v>
+        <v>2.936645120593631</v>
       </c>
       <c r="G29">
         <v>-10.4</v>
       </c>
       <c r="H29">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2019 - (jun 2023 - mai 2025)</t>
+          <t>2019 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J29" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29">
         <v>2025</v>
@@ -7870,39 +7885,39 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.9337995597988019</v>
+        <v>0.9566542182687537</v>
       </c>
       <c r="B30">
-        <v>-6.620044020119808</v>
+        <v>-4.334578173124626</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>8.176539225649242</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E30">
-        <v>7.9106263041602</v>
+        <v>9.660527652721862</v>
       </c>
       <c r="F30">
-        <v>2.783454672675907</v>
+        <v>3.074711764079583</v>
       </c>
       <c r="G30">
-        <v>-12.1</v>
+        <v>-10.4</v>
       </c>
       <c r="H30">
-        <v>-1.2</v>
+        <v>1.7</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2019 - (jul 2023 - jun 2025)</t>
+          <t>2019 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J30" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L30">
         <v>2025</v>
@@ -7915,39 +7930,39 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.9355678479216543</v>
+        <v>0.9337995597988019</v>
       </c>
       <c r="B31">
-        <v>-6.443215207834574</v>
+        <v>-6.620044020119808</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>7.442799395296631</v>
+        <v>8.176539225649242</v>
       </c>
       <c r="E31">
-        <v>8.880892518164108</v>
+        <v>7.9106263041602</v>
       </c>
       <c r="F31">
-        <v>3.232957748931967</v>
+        <v>2.783454672675907</v>
       </c>
       <c r="G31">
-        <v>-12.8</v>
+        <v>-12.1</v>
       </c>
       <c r="H31">
-        <v>-0.1</v>
+        <v>-1.2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2019 - (aug 2023 - jul 2025)</t>
+          <t>2019 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J31" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L31">
         <v>2025</v>
@@ -7960,39 +7975,39 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.9424201687562938</v>
+        <v>0.9355678479216543</v>
       </c>
       <c r="B32">
-        <v>-5.757983124370625</v>
+        <v>-6.443215207834574</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>8.761728922821021</v>
+        <v>7.442799395296631</v>
       </c>
       <c r="E32">
-        <v>9.104489218576708</v>
+        <v>8.880892518164108</v>
       </c>
       <c r="F32">
-        <v>3.06917602620251</v>
+        <v>3.232957748931967</v>
       </c>
       <c r="G32">
-        <v>-11.8</v>
+        <v>-12.8</v>
       </c>
       <c r="H32">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2019 - (sep 2023 - aug 2025)</t>
+          <t>2019 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J32" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <v>2025</v>
@@ -8005,44 +8020,134 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.9484594993530926</v>
+        <v>0.9424201687562938</v>
       </c>
       <c r="B33">
-        <v>-5.154050064690741</v>
+        <v>-5.757983124370625</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>9.461194469994499</v>
+        <v>8.761728922821021</v>
       </c>
       <c r="E33">
-        <v>9.229410045651292</v>
+        <v>9.104489218576708</v>
       </c>
       <c r="F33">
-        <v>3.0015883470018</v>
+        <v>3.06917602620251</v>
       </c>
       <c r="G33">
-        <v>-11</v>
+        <v>-11.8</v>
       </c>
       <c r="H33">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2019 - (okt 2023 - sep 2025)</t>
+          <t>2019 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J33" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L33">
         <v>2025</v>
       </c>
       <c r="M33" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.9484594993530926</v>
+      </c>
+      <c r="B34">
+        <v>-5.154050064690741</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>9.461194469994499</v>
+      </c>
+      <c r="E34">
+        <v>9.229410045651292</v>
+      </c>
+      <c r="F34">
+        <v>3.0015883470018</v>
+      </c>
+      <c r="G34">
+        <v>-11</v>
+      </c>
+      <c r="H34">
+        <v>0.7</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2019 - (okt 2023 - sep 2025)</t>
+        </is>
+      </c>
+      <c r="J34" s="2">
+        <v>45901</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>2025</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.9504647415344348</v>
+      </c>
+      <c r="B35">
+        <v>-4.953525846556516</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>9.461194469994499</v>
+      </c>
+      <c r="E35">
+        <v>9.445356864131334</v>
+      </c>
+      <c r="F35">
+        <v>3.066579836549348</v>
+      </c>
+      <c r="G35">
+        <v>-11</v>
+      </c>
+      <c r="H35">
+        <v>1.1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2019 - (nov 2023 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J35" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>2025</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>24_months</t>
         </is>

--- a/data_indexpoints_tidy/tallmateriale_16952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_16952.xlsx
@@ -2452,10 +2452,10 @@
         <v>2024</v>
       </c>
       <c r="P31">
-        <v>4060</v>
+        <v>10070</v>
       </c>
       <c r="Q31">
-        <v>810</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -2981,6 +2981,9 @@
       <c r="N13">
         <v>1.78</v>
       </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3143,6 +3146,9 @@
       <c r="N16">
         <v>3.49</v>
       </c>
+      <c r="O16">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3305,6 +3311,9 @@
       <c r="N19">
         <v>5.67</v>
       </c>
+      <c r="O19">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3593,6 +3602,9 @@
       <c r="N25">
         <v>-2.89</v>
       </c>
+      <c r="O25">
+        <v>-8.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3974,6 +3986,9 @@
       <c r="N34">
         <v>5.88</v>
       </c>
+      <c r="O34">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4259,6 +4274,9 @@
       <c r="N40">
         <v>2.24</v>
       </c>
+      <c r="O40">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4676,6 +4694,9 @@
       <c r="N49">
         <v>2.43</v>
       </c>
+      <c r="O49">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5102,6 +5123,9 @@
       <c r="N58">
         <v>-4.11</v>
       </c>
+      <c r="O58">
+        <v>-7.43</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5264,6 +5288,9 @@
       <c r="N61">
         <v>7.25</v>
       </c>
+      <c r="O61">
+        <v>6.39</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5420,6 +5447,9 @@
       <c r="N64">
         <v>2.87</v>
       </c>
+      <c r="O64">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5732,6 +5762,9 @@
       <c r="N73">
         <v>-0.33</v>
       </c>
+      <c r="O73">
+        <v>-5.31</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5861,6 +5894,9 @@
       <c r="N76">
         <v>9.93</v>
       </c>
+      <c r="O76">
+        <v>9.630000000000001</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5989,6 +6025,9 @@
       </c>
       <c r="N79">
         <v>8.1</v>
+      </c>
+      <c r="O79">
+        <v>8.83</v>
       </c>
     </row>
     <row r="80">
@@ -6358,7 +6397,7 @@
         <v>2025</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6372,26 +6411,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>jan-okt</t>
+          <t>jan-nov</t>
         </is>
       </c>
       <c r="G5">
         <v>18</v>
       </c>
       <c r="H5">
-        <v>1.014</v>
+        <v>1.0127</v>
       </c>
       <c r="I5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J5">
-        <v>1.116766126251205</v>
+        <v>1.141741421857783</v>
       </c>
       <c r="K5">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -6547,7 +6586,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7660,55 +7699,55 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.9407166855002579</v>
+        <v>0.956676435683516</v>
       </c>
       <c r="B25">
-        <v>-5.928331449974211</v>
+        <v>-4.332356431648399</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25">
-        <v>9.85146347193337</v>
+        <v>9.461194469994499</v>
       </c>
       <c r="E25">
-        <v>7.329273390694706</v>
+        <v>10.84107229899311</v>
       </c>
       <c r="F25">
-        <v>2.395542921504799</v>
+        <v>3.487192733000519</v>
       </c>
       <c r="G25">
-        <v>-10.6</v>
+        <v>-11.2</v>
       </c>
       <c r="H25">
-        <v>-1.2</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2019 - (jan 2023 - des 2024)</t>
+          <t>2019 - (des 2024 - nov 2025)</t>
         </is>
       </c>
       <c r="J25" s="2">
-        <v>45627</v>
+        <v>45962</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>24_months</t>
+          <t>12_months</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.9448885225160316</v>
+        <v>0.9407166855002579</v>
       </c>
       <c r="B26">
-        <v>-5.511147748396839</v>
+        <v>-5.928331449974211</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -7717,30 +7756,30 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E26">
-        <v>7.751253966998971</v>
+        <v>7.329273390694706</v>
       </c>
       <c r="F26">
-        <v>2.5175465032293</v>
+        <v>2.395542921504799</v>
       </c>
       <c r="G26">
-        <v>-10.4</v>
+        <v>-10.6</v>
       </c>
       <c r="H26">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2019 - (feb 2023 - jan 2025)</t>
+          <t>2019 - (jan 2023 - des 2024)</t>
         </is>
       </c>
       <c r="J26" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L26">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -7750,10 +7789,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.9493633079377803</v>
+        <v>0.9448885225160316</v>
       </c>
       <c r="B27">
-        <v>-5.063669206221966</v>
+        <v>-5.511147748396839</v>
       </c>
       <c r="C27">
         <v>14</v>
@@ -7762,27 +7801,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E27">
-        <v>8.199525507506396</v>
+        <v>7.751253966998971</v>
       </c>
       <c r="F27">
-        <v>2.647875692112421</v>
+        <v>2.5175465032293</v>
       </c>
       <c r="G27">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="H27">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2019 - (mar 2023 - feb 2025)</t>
+          <t>2019 - (feb 2023 - jan 2025)</t>
         </is>
       </c>
       <c r="J27" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>2025</v>
@@ -7795,10 +7834,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.9501717700140583</v>
+        <v>0.9493633079377803</v>
       </c>
       <c r="B28">
-        <v>-4.982822998594171</v>
+        <v>-5.063669206221966</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -7807,27 +7846,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E28">
-        <v>8.616161112309243</v>
+        <v>8.199525507506396</v>
       </c>
       <c r="F28">
-        <v>2.768619629046594</v>
+        <v>2.647875692112421</v>
       </c>
       <c r="G28">
-        <v>-10.4</v>
+        <v>-10.3</v>
       </c>
       <c r="H28">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2019 - (apr 2023 - mar 2025)</t>
+          <t>2019 - (mar 2023 - feb 2025)</t>
         </is>
       </c>
       <c r="J28" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>2025</v>
@@ -7840,10 +7879,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.9538765915536376</v>
+        <v>0.9501717700140583</v>
       </c>
       <c r="B29">
-        <v>-4.612340844636242</v>
+        <v>-4.982822998594171</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -7852,27 +7891,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E29">
-        <v>9.190469092064667</v>
+        <v>8.616161112309243</v>
       </c>
       <c r="F29">
-        <v>2.936645120593631</v>
+        <v>2.768619629046594</v>
       </c>
       <c r="G29">
         <v>-10.4</v>
       </c>
       <c r="H29">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2019 - (mai 2023 - apr 2025)</t>
+          <t>2019 - (apr 2023 - mar 2025)</t>
         </is>
       </c>
       <c r="J29" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>2025</v>
@@ -7885,10 +7924,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.9566542182687537</v>
+        <v>0.9538765915536376</v>
       </c>
       <c r="B30">
-        <v>-4.334578173124626</v>
+        <v>-4.612340844636242</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -7897,27 +7936,27 @@
         <v>9.85146347193337</v>
       </c>
       <c r="E30">
-        <v>9.660527652721862</v>
+        <v>9.190469092064667</v>
       </c>
       <c r="F30">
-        <v>3.074711764079583</v>
+        <v>2.936645120593631</v>
       </c>
       <c r="G30">
         <v>-10.4</v>
       </c>
       <c r="H30">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2019 - (jun 2023 - mai 2025)</t>
+          <t>2019 - (mai 2023 - apr 2025)</t>
         </is>
       </c>
       <c r="J30" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30">
         <v>2025</v>
@@ -7930,39 +7969,39 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.9337995597988019</v>
+        <v>0.9566542182687537</v>
       </c>
       <c r="B31">
-        <v>-6.620044020119808</v>
+        <v>-4.334578173124626</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>8.176539225649242</v>
+        <v>9.85146347193337</v>
       </c>
       <c r="E31">
-        <v>7.9106263041602</v>
+        <v>9.660527652721862</v>
       </c>
       <c r="F31">
-        <v>2.783454672675907</v>
+        <v>3.074711764079583</v>
       </c>
       <c r="G31">
-        <v>-12.1</v>
+        <v>-10.4</v>
       </c>
       <c r="H31">
-        <v>-1.2</v>
+        <v>1.7</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2019 - (jul 2023 - jun 2025)</t>
+          <t>2019 - (jun 2023 - mai 2025)</t>
         </is>
       </c>
       <c r="J31" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <v>2025</v>
@@ -7975,39 +8014,39 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.9355678479216543</v>
+        <v>0.9337995597988019</v>
       </c>
       <c r="B32">
-        <v>-6.443215207834574</v>
+        <v>-6.620044020119808</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>7.442799395296631</v>
+        <v>8.176539225649242</v>
       </c>
       <c r="E32">
-        <v>8.880892518164108</v>
+        <v>7.9106263041602</v>
       </c>
       <c r="F32">
-        <v>3.232957748931967</v>
+        <v>2.783454672675907</v>
       </c>
       <c r="G32">
-        <v>-12.8</v>
+        <v>-12.1</v>
       </c>
       <c r="H32">
-        <v>-0.1</v>
+        <v>-1.2</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2019 - (aug 2023 - jul 2025)</t>
+          <t>2019 - (jul 2023 - jun 2025)</t>
         </is>
       </c>
       <c r="J32" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>2025</v>
@@ -8020,39 +8059,39 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.9424201687562938</v>
+        <v>0.9355678479216543</v>
       </c>
       <c r="B33">
-        <v>-5.757983124370625</v>
+        <v>-6.443215207834574</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>8.761728922821021</v>
+        <v>7.442799395296631</v>
       </c>
       <c r="E33">
-        <v>9.104489218576708</v>
+        <v>8.880892518164108</v>
       </c>
       <c r="F33">
-        <v>3.06917602620251</v>
+        <v>3.232957748931967</v>
       </c>
       <c r="G33">
-        <v>-11.8</v>
+        <v>-12.8</v>
       </c>
       <c r="H33">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2019 - (sep 2023 - aug 2025)</t>
+          <t>2019 - (aug 2023 - jul 2025)</t>
         </is>
       </c>
       <c r="J33" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>2025</v>
@@ -8065,39 +8104,39 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.9484594993530926</v>
+        <v>0.9424201687562938</v>
       </c>
       <c r="B34">
-        <v>-5.154050064690741</v>
+        <v>-5.757983124370625</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>9.461194469994499</v>
+        <v>8.761728922821021</v>
       </c>
       <c r="E34">
-        <v>9.229410045651292</v>
+        <v>9.104489218576708</v>
       </c>
       <c r="F34">
-        <v>3.0015883470018</v>
+        <v>3.06917602620251</v>
       </c>
       <c r="G34">
-        <v>-11</v>
+        <v>-11.8</v>
       </c>
       <c r="H34">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2019 - (okt 2023 - sep 2025)</t>
+          <t>2019 - (sep 2023 - aug 2025)</t>
         </is>
       </c>
       <c r="J34" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34">
         <v>2025</v>
@@ -8110,10 +8149,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.9504647415344348</v>
+        <v>0.9484594993530926</v>
       </c>
       <c r="B35">
-        <v>-4.953525846556516</v>
+        <v>-5.154050064690741</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -8122,32 +8161,122 @@
         <v>9.461194469994499</v>
       </c>
       <c r="E35">
-        <v>9.445356864131334</v>
+        <v>9.229410045651292</v>
       </c>
       <c r="F35">
-        <v>3.066579836549348</v>
+        <v>3.0015883470018</v>
       </c>
       <c r="G35">
         <v>-11</v>
       </c>
       <c r="H35">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2019 - (nov 2023 - okt 2025)</t>
+          <t>2019 - (okt 2023 - sep 2025)</t>
         </is>
       </c>
       <c r="J35" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35">
         <v>2025</v>
       </c>
       <c r="M35" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.9504647415344348</v>
+      </c>
+      <c r="B36">
+        <v>-4.953525846556516</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>9.461194469994499</v>
+      </c>
+      <c r="E36">
+        <v>9.445356864131334</v>
+      </c>
+      <c r="F36">
+        <v>3.066579836549348</v>
+      </c>
+      <c r="G36">
+        <v>-11</v>
+      </c>
+      <c r="H36">
+        <v>1.1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2019 - (nov 2023 - okt 2025)</t>
+        </is>
+      </c>
+      <c r="J36" s="2">
+        <v>45931</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>2025</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>24_months</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.9505415319810241</v>
+      </c>
+      <c r="B37">
+        <v>-4.945846801897591</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>9.461194469994499</v>
+      </c>
+      <c r="E37">
+        <v>9.649200500987547</v>
+      </c>
+      <c r="F37">
+        <v>3.1275596420733</v>
+      </c>
+      <c r="G37">
+        <v>-11.1</v>
+      </c>
+      <c r="H37">
+        <v>1.2</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2019 - (des 2023 - nov 2025)</t>
+        </is>
+      </c>
+      <c r="J37" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>2025</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>24_months</t>
         </is>

--- a/data_indexpoints_tidy/tallmateriale_16952.xlsx
+++ b/data_indexpoints_tidy/tallmateriale_16952.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB479F43-8351-42E3-AA7C-5CCA969C84CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -12,16 +18,738 @@
     <sheet name="byindeks_aarlig" sheetId="3" r:id="rId3"/>
     <sheet name="by_glid_indeks" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="239">
+  <si>
+    <t>trp_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>road_reference</t>
+  </si>
+  <si>
+    <t>road_category_and_number</t>
+  </si>
+  <si>
+    <t>county_name</t>
+  </si>
+  <si>
+    <t>municipality_name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>road_link_position</t>
+  </si>
+  <si>
+    <t>traffic_type</t>
+  </si>
+  <si>
+    <t>adt</t>
+  </si>
+  <si>
+    <t>year_aadt</t>
+  </si>
+  <si>
+    <t>adt_ref</t>
+  </si>
+  <si>
+    <t>ydt_ref_light</t>
+  </si>
+  <si>
+    <t>ydt_ref_heavy</t>
+  </si>
+  <si>
+    <t>ydt_light</t>
+  </si>
+  <si>
+    <t>ydt_heavy</t>
+  </si>
+  <si>
+    <t>64888V1125917</t>
+  </si>
+  <si>
+    <t>Tverrforbindelsen</t>
+  </si>
+  <si>
+    <t>EV8 S1D1 m2385</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Troms</t>
+  </si>
+  <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>0.62585@1125917</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>14843V1125937</t>
+  </si>
+  <si>
+    <t>Giæverbukta nord</t>
+  </si>
+  <si>
+    <t>EV8 S1D10 m31</t>
+  </si>
+  <si>
+    <t>0.14843@1125937</t>
+  </si>
+  <si>
+    <t>55092V1125799</t>
+  </si>
+  <si>
+    <t>Breivika</t>
+  </si>
+  <si>
+    <t>EV8 S2D1 m140</t>
+  </si>
+  <si>
+    <t>0.42077@1125799</t>
+  </si>
+  <si>
+    <t>68511V2673383</t>
+  </si>
+  <si>
+    <t>Tromsøysundtunnelen T1</t>
+  </si>
+  <si>
+    <t>EV8 S2D1 m2967</t>
+  </si>
+  <si>
+    <t>0.68511@2673383</t>
+  </si>
+  <si>
+    <t>31157V2782679</t>
+  </si>
+  <si>
+    <t>Tromsøysundtunnelen T2</t>
+  </si>
+  <si>
+    <t>EV8 S2D1 m5455</t>
+  </si>
+  <si>
+    <t>0.31157@2782679</t>
+  </si>
+  <si>
+    <t>31958V1125796</t>
+  </si>
+  <si>
+    <t>Kraftforsyningen (Tomasjord)</t>
+  </si>
+  <si>
+    <t>EV8 S2D1 m8454</t>
+  </si>
+  <si>
+    <t>0.31958@1125796</t>
+  </si>
+  <si>
+    <t>85147V1201967</t>
+  </si>
+  <si>
+    <t>Hungeren</t>
+  </si>
+  <si>
+    <t>EV8 S3D1 m1048</t>
+  </si>
+  <si>
+    <t>0.85147@1201967</t>
+  </si>
+  <si>
+    <t>61732V1126304</t>
+  </si>
+  <si>
+    <t>Sandvikeidet</t>
+  </si>
+  <si>
+    <t>EV8 S4D1 m225</t>
+  </si>
+  <si>
+    <t>0.61727@1126304</t>
+  </si>
+  <si>
+    <t>07954V1125849</t>
+  </si>
+  <si>
+    <t>Fagernes øst</t>
+  </si>
+  <si>
+    <t>FV91 S1D1 m767</t>
+  </si>
+  <si>
+    <t>fv. 91</t>
+  </si>
+  <si>
+    <t>0.07954@1125849</t>
+  </si>
+  <si>
+    <t>98487V2057940</t>
+  </si>
+  <si>
+    <t>Ryatunnelen</t>
+  </si>
+  <si>
+    <t>FV858 S7D1 m1496</t>
+  </si>
+  <si>
+    <t>fv. 858</t>
+  </si>
+  <si>
+    <t>0.98487@2057940</t>
+  </si>
+  <si>
+    <t>92719V1125906</t>
+  </si>
+  <si>
+    <t>Eidkjosen sør</t>
+  </si>
+  <si>
+    <t>FV858 S8D1 m14321</t>
+  </si>
+  <si>
+    <t>0.92719@1125906</t>
+  </si>
+  <si>
+    <t>79743V1125914</t>
+  </si>
+  <si>
+    <t>Tromsøbrua</t>
+  </si>
+  <si>
+    <t>FV862 S1D1 m1705</t>
+  </si>
+  <si>
+    <t>fv. 862</t>
+  </si>
+  <si>
+    <t>0.79763@1125914</t>
+  </si>
+  <si>
+    <t>82998V1125914</t>
+  </si>
+  <si>
+    <t>Tromsøbrua avkjøring</t>
+  </si>
+  <si>
+    <t>FV862 S1D1 m1780</t>
+  </si>
+  <si>
+    <t>0.8328@1125914</t>
+  </si>
+  <si>
+    <t>80998V1125915</t>
+  </si>
+  <si>
+    <t>Hansjordnestunnelen</t>
+  </si>
+  <si>
+    <t>FV862 S1D1 m2411</t>
+  </si>
+  <si>
+    <t>0.80998@1125915</t>
+  </si>
+  <si>
+    <t>05293V1125916</t>
+  </si>
+  <si>
+    <t>Breiviktunnelen</t>
+  </si>
+  <si>
+    <t>FV862 S1D1 m2604</t>
+  </si>
+  <si>
+    <t>0.05293@1125916</t>
+  </si>
+  <si>
+    <t>71291V1125935</t>
+  </si>
+  <si>
+    <t>Sentrumstangenten</t>
+  </si>
+  <si>
+    <t>FV862 S1D10 m788</t>
+  </si>
+  <si>
+    <t>0.71291@1125935</t>
+  </si>
+  <si>
+    <t>52043V1664653</t>
+  </si>
+  <si>
+    <t>Langnestunnelen</t>
+  </si>
+  <si>
+    <t>FV862 S1D20 m897</t>
+  </si>
+  <si>
+    <t>0.52043@1664653</t>
+  </si>
+  <si>
+    <t>49212V1126027</t>
+  </si>
+  <si>
+    <t>Postterminalen</t>
+  </si>
+  <si>
+    <t>FV862 S1D30 m46</t>
+  </si>
+  <si>
+    <t>0.86826@1126027</t>
+  </si>
+  <si>
+    <t>02636V1125920</t>
+  </si>
+  <si>
+    <t>Sandnessundbrua</t>
+  </si>
+  <si>
+    <t>FV862 S2D1 m609</t>
+  </si>
+  <si>
+    <t>0.02631@1125920</t>
+  </si>
+  <si>
+    <t>62639V2268190</t>
+  </si>
+  <si>
+    <t>Kvaløysletta sør</t>
+  </si>
+  <si>
+    <t>FV862 S2D1 m2930</t>
+  </si>
+  <si>
+    <t>0.63232@2268190</t>
+  </si>
+  <si>
+    <t>54570V1126345</t>
+  </si>
+  <si>
+    <t>Eidkjosen</t>
+  </si>
+  <si>
+    <t>FV862 S3D1 m201</t>
+  </si>
+  <si>
+    <t>0.53527@1126345</t>
+  </si>
+  <si>
+    <t>03836V1125958</t>
+  </si>
+  <si>
+    <t>Kvaløysletta nord</t>
+  </si>
+  <si>
+    <t>FV863 S1D1 m380</t>
+  </si>
+  <si>
+    <t>fv. 863</t>
+  </si>
+  <si>
+    <t>0.03836@1125958</t>
+  </si>
+  <si>
+    <t>13980V1126353</t>
+  </si>
+  <si>
+    <t>Lunheim</t>
+  </si>
+  <si>
+    <t>FV864 S1D1 m1417</t>
+  </si>
+  <si>
+    <t>fv. 864</t>
+  </si>
+  <si>
+    <t>0.14866@1126353</t>
+  </si>
+  <si>
+    <t>30868V1109333</t>
+  </si>
+  <si>
+    <t>Dramsvegen</t>
+  </si>
+  <si>
+    <t>KV7000 S4D1 m394</t>
+  </si>
+  <si>
+    <t>kv. 7000</t>
+  </si>
+  <si>
+    <t>0.30877@1109333</t>
+  </si>
+  <si>
+    <t>01057V1109432</t>
+  </si>
+  <si>
+    <t>Hansine Hansens veg</t>
+  </si>
+  <si>
+    <t>KV12650 S2D1 m19</t>
+  </si>
+  <si>
+    <t>kv. 12650</t>
+  </si>
+  <si>
+    <t>0.00919@1109432</t>
+  </si>
+  <si>
+    <t>47285V3050559</t>
+  </si>
+  <si>
+    <t>Kvaløyvegen</t>
+  </si>
+  <si>
+    <t>KV20600 S1D70 m1342</t>
+  </si>
+  <si>
+    <t>kv. 20600</t>
+  </si>
+  <si>
+    <t>0.47285@3050559</t>
+  </si>
+  <si>
+    <t>34219V1109528</t>
+  </si>
+  <si>
+    <t>Prestvannet</t>
+  </si>
+  <si>
+    <t>KV21200 S1D1 m639</t>
+  </si>
+  <si>
+    <t>kv. 21200</t>
+  </si>
+  <si>
+    <t>0.34219@1109528</t>
+  </si>
+  <si>
+    <t>74530V2378328</t>
+  </si>
+  <si>
+    <t>Ringvegen</t>
+  </si>
+  <si>
+    <t>KV30790 S2D1 m4397</t>
+  </si>
+  <si>
+    <t>kv. 30790</t>
+  </si>
+  <si>
+    <t>0.7453@2378328</t>
+  </si>
+  <si>
+    <t>46453V1109708</t>
+  </si>
+  <si>
+    <t>Stakkevollvegen</t>
+  </si>
+  <si>
+    <t>KV37650 S1D1 m913</t>
+  </si>
+  <si>
+    <t>kv. 37650</t>
+  </si>
+  <si>
+    <t>0.46453@1109708</t>
+  </si>
+  <si>
+    <t>05899V1109722</t>
+  </si>
+  <si>
+    <t>Strandvegen</t>
+  </si>
+  <si>
+    <t>KV40500 S1D1 m156</t>
+  </si>
+  <si>
+    <t>kv. 40500</t>
+  </si>
+  <si>
+    <t>0.05899@1109722</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>year_base</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year_from_to</t>
+  </si>
+  <si>
+    <t>index_type</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>n_trp</t>
+  </si>
+  <si>
+    <t>index_i</t>
+  </si>
+  <si>
+    <t>index_p</t>
+  </si>
+  <si>
+    <t>standard_error</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>area_name</t>
+  </si>
+  <si>
+    <t>2019-2022</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>jan-des</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>2022-2024</t>
+  </si>
+  <si>
+    <t>chained</t>
+  </si>
+  <si>
+    <t>2022-2025</t>
+  </si>
+  <si>
+    <t>2019-2023</t>
+  </si>
+  <si>
+    <t>2019-2024</t>
+  </si>
+  <si>
+    <t>2019-2025</t>
+  </si>
+  <si>
+    <t>n_eff</t>
+  </si>
+  <si>
+    <t>sd_sample_p</t>
+  </si>
+  <si>
+    <t>standard_error_p</t>
+  </si>
+  <si>
+    <t>index_period</t>
+  </si>
+  <si>
+    <t>month_object</t>
+  </si>
+  <si>
+    <t>month_n</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2023 - des 2023)</t>
+  </si>
+  <si>
+    <t>12_months</t>
+  </si>
+  <si>
+    <t>2019 - (feb 2023 - jan 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (mar 2023 - feb 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (apr 2023 - mar 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (mai 2023 - apr 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (jun 2023 - mai 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (jul 2023 - jun 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (aug 2023 - jul 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (sep 2023 - aug 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (okt 2023 - sep 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (nov 2023 - okt 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (des 2023 - nov 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2024 - des 2024)</t>
+  </si>
+  <si>
+    <t>2019 - (feb 2024 - jan 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (mar 2024 - feb 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (apr 2024 - mar 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (mai 2024 - apr 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jun 2024 - mai 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jul 2024 - jun 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (aug 2024 - jul 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (sep 2024 - aug 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (okt 2024 - sep 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (nov 2024 - okt 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (des 2024 - nov 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2025 - des 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2023 - des 2024)</t>
+  </si>
+  <si>
+    <t>24_months</t>
+  </si>
+  <si>
+    <t>2019 - (feb 2023 - jan 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (mar 2023 - feb 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (apr 2023 - mar 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (mai 2023 - apr 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jun 2023 - mai 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jul 2023 - jun 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (aug 2023 - jul 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (sep 2023 - aug 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (okt 2023 - sep 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (nov 2023 - okt 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (des 2023 - nov 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2024 - des 2025)</t>
+  </si>
+  <si>
+    <t>2019 - (jan 2023 - des 2025)</t>
+  </si>
+  <si>
+    <t>36_months</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +798,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +850,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,6 +884,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -182,9 +919,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -357,152 +1095,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>trp_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>road_reference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>road_category_and_number</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>county_name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>municipality_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>road_link_position</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>traffic_type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>adt</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>year_aadt</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>adt_ref</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_ref_light</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_ref_heavy</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_light</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ydt_heavy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>64888V1125917</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tverrforbindelsen</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EV8 S1D1 m2385</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>69.676378</v>
+        <v>69.676374999999993</v>
       </c>
       <c r="H2">
-        <v>18.943517</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.62585@1125917</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.943503</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
       </c>
       <c r="K2">
-        <v>15860</v>
+        <v>17700</v>
       </c>
       <c r="L2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M2">
         <v>13500</v>
@@ -514,58 +1202,42 @@
         <v>940</v>
       </c>
       <c r="P2">
-        <v>18360</v>
+        <v>20240</v>
       </c>
       <c r="Q2">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>14843V1125937</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Giæverbukta nord</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EV8 S1D10 m31</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>69.672391</v>
+        <v>69.672391000000005</v>
       </c>
       <c r="H3">
-        <v>18.917582</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.14843@1125937</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.917581999999999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="K3">
         <v>16810</v>
@@ -589,58 +1261,42 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>55092V1125799</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Breivika</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>EV8 S2D1 m207</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>69.677575</v>
+        <v>69.677042</v>
       </c>
       <c r="H4">
-        <v>18.980192</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.14157@1125799</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.979379000000002</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>19950</v>
+        <v>18980</v>
       </c>
       <c r="L4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M4">
         <v>21080</v>
@@ -652,64 +1308,48 @@
         <v>3050</v>
       </c>
       <c r="P4">
-        <v>23250</v>
+        <v>22270</v>
       </c>
       <c r="Q4">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>68511V2673383</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EV8 S2D1 m2967</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>69.67012</v>
+        <v>69.670088000000007</v>
       </c>
       <c r="H5">
-        <v>19.018382</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.68511@2673383</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>19.018453000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>5790</v>
+        <v>5370</v>
       </c>
       <c r="L5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M5">
         <v>5070</v>
@@ -721,64 +1361,48 @@
         <v>650</v>
       </c>
       <c r="P5">
-        <v>6610</v>
+        <v>6160</v>
       </c>
       <c r="Q5">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>31157V2782679</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EV8 S2D1 m5455</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>69.670087</v>
+        <v>69.670100000000005</v>
       </c>
       <c r="H6">
-        <v>19.019226</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.31157@2782679</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>19.019196000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>5570</v>
+        <v>5140</v>
       </c>
       <c r="L6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M6">
         <v>4770</v>
@@ -790,64 +1414,48 @@
         <v>720</v>
       </c>
       <c r="P6">
-        <v>6310</v>
+        <v>5900</v>
       </c>
       <c r="Q6">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31958V1125796</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Kraftforsyningen (Tomasjord)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EV8 S2D1 m8454</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>69.657706</v>
+        <v>69.657706000000005</v>
       </c>
       <c r="H7">
-        <v>19.01207</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.31958@1125796</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>19.012070000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>12320</v>
+        <v>11680</v>
       </c>
       <c r="L7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M7">
         <v>10310</v>
@@ -859,64 +1467,48 @@
         <v>870</v>
       </c>
       <c r="P7">
-        <v>13670</v>
+        <v>13000</v>
       </c>
       <c r="Q7">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>85147V1201967</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hungeren</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EV8 S3D1 m1048</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>69.635616</v>
+        <v>69.635615999999999</v>
       </c>
       <c r="H8">
-        <v>18.961609</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.85147@1201967</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.961608999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>10720</v>
+        <v>9150</v>
       </c>
       <c r="L8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M8">
         <v>10700</v>
@@ -928,64 +1520,48 @@
         <v>1190</v>
       </c>
       <c r="P8">
-        <v>11520</v>
+        <v>9810</v>
       </c>
       <c r="Q8">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>61732V1126304</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sandvikeidet</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>EV8 S4D1 m225</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>69.546297</v>
+        <v>69.546295999999998</v>
       </c>
       <c r="H9">
         <v>19.008474</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.61727@1126304</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="L9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M9">
         <v>5100</v>
@@ -997,64 +1573,48 @@
         <v>950</v>
       </c>
       <c r="P9">
-        <v>5470</v>
+        <v>5520</v>
       </c>
       <c r="Q9">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>07954V1125849</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fagernes øst</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FV91 S1D1 m767</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>fv. 91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>69.56506299999999</v>
+        <v>69.565062999999995</v>
       </c>
       <c r="H10">
-        <v>19.195416</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.07954@1125849</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>19.195416000000002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
       </c>
       <c r="K10">
         <v>940</v>
       </c>
       <c r="L10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -1069,61 +1629,45 @@
         <v>960</v>
       </c>
       <c r="Q10">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>98487V2057940</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ryatunnelen</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FV858 S7D1 m1496</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>69.566714</v>
+        <v>69.566731000000004</v>
       </c>
       <c r="H11">
-        <v>18.797272</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.98487@2057940</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.797217</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="L11">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M11">
         <v>600</v>
@@ -1135,64 +1679,48 @@
         <v>70</v>
       </c>
       <c r="P11">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="Q11">
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>92719V1125906</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Eidkjosen sør</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FV858 S8D1 m14321</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>69.673681</v>
+        <v>69.673681000000002</v>
       </c>
       <c r="H12">
-        <v>18.744357</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.92719@1125906</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.744357000000001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>2800</v>
+        <v>2840</v>
       </c>
       <c r="L12">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M12">
         <v>2620</v>
@@ -1204,64 +1732,48 @@
         <v>280</v>
       </c>
       <c r="P12">
-        <v>2970</v>
+        <v>3020</v>
       </c>
       <c r="Q12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>79743V1125914</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tromsøbrua</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FV862 S1D1 m1705</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>69.654124</v>
+        <v>69.654127000000003</v>
       </c>
       <c r="H13">
-        <v>18.96535</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.79763@1125914</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.965339</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>12330</v>
+        <v>13960</v>
       </c>
       <c r="L13">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M13">
         <v>17770</v>
@@ -1273,64 +1785,48 @@
         <v>1820</v>
       </c>
       <c r="P13">
-        <v>12930</v>
+        <v>14650</v>
       </c>
       <c r="Q13">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>82998V1125914</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tromsøbrua avkjøring</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FV862 S1D1 m1780</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>69.654511</v>
+        <v>69.654510999999999</v>
       </c>
       <c r="H14">
-        <v>18.963823</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.8328@1125914</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.963823000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>4540</v>
+        <v>6680</v>
       </c>
       <c r="L14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M14">
         <v>17450</v>
@@ -1342,64 +1838,48 @@
         <v>1800</v>
       </c>
       <c r="P14">
-        <v>4810</v>
+        <v>7040</v>
       </c>
       <c r="Q14">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>80998V1125915</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Hansjordnestunnelen</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FV862 S1D1 m2411</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
       </c>
       <c r="G15">
         <v>69.657871</v>
       </c>
       <c r="H15">
-        <v>18.956873</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.80998@1125915</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.956873000000002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>9070</v>
+        <v>2060</v>
       </c>
       <c r="L15">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="M15">
         <v>9880</v>
@@ -1411,58 +1891,42 @@
         <v>1160</v>
       </c>
       <c r="P15">
-        <v>10140</v>
+        <v>2320</v>
       </c>
       <c r="Q15">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>05293V1125916</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Breiviktunnelen</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FV862 S1D1 m2604</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>69.659465</v>
+        <v>69.659464999999997</v>
       </c>
       <c r="H16">
-        <v>18.955189</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.05293@1125916</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.955189000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
       </c>
       <c r="K16">
         <v>5330</v>
@@ -1486,52 +1950,36 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>71291V1125935</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Sentrumstangenten</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FV862 S1D10 m791</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
       </c>
       <c r="G17">
-        <v>69.65187299999999</v>
+        <v>69.651872999999995</v>
       </c>
       <c r="H17">
         <v>18.945449</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.71291@1125935</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
       </c>
       <c r="K17">
         <v>5550</v>
@@ -1555,52 +2003,36 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>52043V1664653</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Langnestunnelen</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FV862 S1D20 m897</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
       </c>
       <c r="G18">
-        <v>69.66386300000001</v>
+        <v>69.663863000000006</v>
       </c>
       <c r="H18">
-        <v>18.938923</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.52043@1664653</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.938922999999999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
       </c>
       <c r="K18">
         <v>10710</v>
@@ -1624,58 +2056,42 @@
         <v>860</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>49212V1126027</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Postterminalen</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FV862 S1D30 m46</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>69.66961000000001</v>
+        <v>69.669610000000006</v>
       </c>
       <c r="H19">
-        <v>18.919523</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.86826@1126027</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.919523000000002</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
       </c>
       <c r="K19">
-        <v>12370</v>
+        <v>17150</v>
       </c>
       <c r="L19">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M19">
         <v>12370</v>
@@ -1687,64 +2103,48 @@
         <v>930</v>
       </c>
       <c r="P19">
-        <v>13620</v>
+        <v>18560</v>
       </c>
       <c r="Q19">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>02636V1125920</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sandnessundbrua</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FV862 S2D1 m609</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>69.683995</v>
+        <v>69.683994999999996</v>
       </c>
       <c r="H20">
-        <v>18.905659</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.02631@1125920</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.905660000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
       </c>
       <c r="K20">
-        <v>14530</v>
+        <v>14830</v>
       </c>
       <c r="L20">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M20">
         <v>16040</v>
@@ -1756,64 +2156,48 @@
         <v>1150</v>
       </c>
       <c r="P20">
-        <v>15720</v>
+        <v>16060</v>
       </c>
       <c r="Q20">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>62639V2268190</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Kvaløysletta sør</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FV862 S2D1 m2930</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>69.69300200000001</v>
+        <v>69.693002000000007</v>
       </c>
       <c r="H21">
-        <v>18.872476</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.63232@2268190</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.872475000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
       </c>
       <c r="K21">
-        <v>12430</v>
+        <v>12590</v>
       </c>
       <c r="L21">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M21">
         <v>13170</v>
@@ -1825,64 +2209,48 @@
         <v>1220</v>
       </c>
       <c r="P21">
-        <v>13480</v>
+        <v>13650</v>
       </c>
       <c r="Q21">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>54570V1126345</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Eidkjosen</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FV862 S3D1 m201</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>69.678917</v>
+        <v>69.678916999999998</v>
       </c>
       <c r="H22">
-        <v>18.746919</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.53527@1126345</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.746918999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
       </c>
       <c r="K22">
-        <v>3870</v>
+        <v>3980</v>
       </c>
       <c r="L22">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M22">
         <v>3970</v>
@@ -1894,64 +2262,48 @@
         <v>530</v>
       </c>
       <c r="P22">
-        <v>4100</v>
+        <v>4210</v>
       </c>
       <c r="Q22">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>03836V1125958</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Kvaløysletta nord</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FV863 S1D1 m380</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>fv. 863</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>69.69843400000001</v>
+        <v>69.698434000000006</v>
       </c>
       <c r="H23">
-        <v>18.889476</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.03836@1125958</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.889475999999998</v>
+      </c>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
       </c>
       <c r="K23">
-        <v>4770</v>
+        <v>4990</v>
       </c>
       <c r="L23">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M23">
         <v>5620</v>
@@ -1963,64 +2315,48 @@
         <v>470</v>
       </c>
       <c r="P23">
-        <v>5120</v>
+        <v>5320</v>
       </c>
       <c r="Q23">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>13980V1126353</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Lunheim</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FV864 S1D1 m1417</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>fv. 864</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>69.672968</v>
+        <v>69.672967999999997</v>
       </c>
       <c r="H24">
-        <v>19.038623</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.14866@1126353</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>19.038623999999999</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>9400</v>
+        <v>9350</v>
       </c>
       <c r="L24">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M24">
         <v>10100</v>
@@ -2032,358 +2368,262 @@
         <v>790</v>
       </c>
       <c r="P24">
-        <v>10280</v>
+        <v>10250</v>
       </c>
       <c r="Q24">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>30868V1109333</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Dramsvegen</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>KV7000 S4D1 m394</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>kv. 7000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
       </c>
       <c r="G25">
-        <v>69.661844</v>
+        <v>69.661844000000002</v>
       </c>
       <c r="H25">
-        <v>18.959925</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.30877@1109333</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.959924999999998</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
       </c>
       <c r="K25">
-        <v>1810</v>
+        <v>1850</v>
       </c>
       <c r="L25">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P25">
-        <v>1940</v>
+        <v>1970</v>
       </c>
       <c r="Q25">
         <v>430</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>01057V1109432</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Hansine Hansens veg</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>KV12650 S2D1 m19</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>kv. 12650</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
       </c>
       <c r="G26">
-        <v>69.678859</v>
+        <v>69.678859000000003</v>
       </c>
       <c r="H26">
-        <v>18.96906</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.00919@1109432</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.969059999999999</v>
+      </c>
+      <c r="I26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
       </c>
       <c r="K26">
-        <v>2230</v>
+        <v>2110</v>
       </c>
       <c r="L26">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P26">
-        <v>2860</v>
+        <v>2700</v>
       </c>
       <c r="Q26">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>47285V3050559</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Kvaløyvegen</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>KV20600 S1D70 m1342</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>kv. 20600</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
       </c>
       <c r="G27">
-        <v>69.652518</v>
+        <v>69.652518000000001</v>
       </c>
       <c r="H27">
-        <v>18.903338</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.47285@3050559</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.903338000000002</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
       </c>
       <c r="K27">
-        <v>5580</v>
+        <v>6930</v>
       </c>
       <c r="L27">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P27">
-        <v>6050</v>
+        <v>7570</v>
       </c>
       <c r="Q27">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>34219V1109528</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Prestvannet</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>KV21200 S1D1 m639</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>kv. 21200</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
       </c>
       <c r="G28">
-        <v>69.658698</v>
+        <v>69.658698999999999</v>
       </c>
       <c r="H28">
-        <v>18.930273</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.34219@1109528</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.930271999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
       </c>
       <c r="K28">
-        <v>4870</v>
+        <v>5460</v>
       </c>
       <c r="L28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P28">
-        <v>5210</v>
+        <v>5770</v>
       </c>
       <c r="Q28">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>74530V2378328</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Ringvegen</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>KV30790 S2D1 m4397</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>kv. 30790</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
       </c>
       <c r="G29">
-        <v>69.694717</v>
+        <v>69.694716999999997</v>
       </c>
       <c r="H29">
         <v>18.938157</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.7453@2378328</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+      <c r="I29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>24</v>
       </c>
       <c r="K29">
-        <v>4130</v>
+        <v>4080</v>
       </c>
       <c r="L29">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P29">
-        <v>4400</v>
+        <v>4360</v>
       </c>
       <c r="Q29">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>46453V1109708</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Stakkevollvegen</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>KV37650 S1D1 m913</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>kv. 37650</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
       </c>
       <c r="G30">
-        <v>69.66683999999999</v>
+        <v>69.666839999999993</v>
       </c>
       <c r="H30">
-        <v>18.968894</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.46453@1109708</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.968893999999999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2398,58 +2638,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>05899V1109722</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Strandvegen</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>KV40500 S1D1 m156</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>kv. 40500</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Troms</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
       </c>
       <c r="G31">
-        <v>69.64436600000001</v>
+        <v>69.644366000000005</v>
       </c>
       <c r="H31">
-        <v>18.946964</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.05899@1109722</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
+        <v>18.946964000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
       </c>
       <c r="K31">
-        <v>3780</v>
+        <v>9130</v>
       </c>
       <c r="L31">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P31">
         <v>10070</v>
@@ -2464,116 +2688,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>trp_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>road_category_and_number</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>jan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>feb</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mar</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>apr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mai</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>jun</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>jul</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>aug</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sep</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>okt</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>nov</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>des</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>55092V1125799</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Breivika</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2023</v>
       </c>
       <c r="E2">
-        <v>-9.369999999999999</v>
+        <v>-9.3699999999999992</v>
       </c>
       <c r="F2">
         <v>-11.69</v>
@@ -2588,7 +2774,7 @@
         <v>-12.8</v>
       </c>
       <c r="J2">
-        <v>-8.619999999999999</v>
+        <v>-8.6199999999999992</v>
       </c>
       <c r="K2">
         <v>-7.52</v>
@@ -2606,21 +2792,15 @@
         <v>-10.42</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>55092V1125799</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Breivika</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2024</v>
@@ -2629,7 +2809,7 @@
         <v>-1.55</v>
       </c>
       <c r="G3">
-        <v>-8.039999999999999</v>
+        <v>-8.0399999999999991</v>
       </c>
       <c r="H3">
         <v>17.8</v>
@@ -2638,47 +2818,35 @@
         <v>3.27</v>
       </c>
       <c r="O3">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="P3">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>55092V1125799</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Breivika</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05293V1125916</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Breiviktunnelen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -2708,61 +2876,43 @@
         <v>-13.92</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05293V1125916</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Breiviktunnelen</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
       </c>
       <c r="D6">
         <v>2024</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05293V1125916</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Breiviktunnelen</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>30868V1109333</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dramsvegen</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kv. 7000</t>
-        </is>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
       </c>
       <c r="D8">
         <v>2023</v>
@@ -2780,61 +2930,43 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>30868V1109333</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dramsvegen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>kv. 7000</t>
-        </is>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
       </c>
       <c r="D9">
         <v>2024</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>30868V1109333</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dramsvegen</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>kv. 7000</t>
-        </is>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>54570V1126345</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Eidkjosen</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
       </c>
       <c r="D11">
         <v>2023</v>
@@ -2843,13 +2975,13 @@
         <v>3.99</v>
       </c>
       <c r="F11">
-        <v>-2.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="G11">
         <v>-1.34</v>
       </c>
       <c r="H11">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I11">
         <v>-9.34</v>
@@ -2867,30 +2999,24 @@
         <v>-5.57</v>
       </c>
       <c r="N11">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O11">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="P11">
         <v>3.62</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>54570V1126345</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Eidkjosen</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
       </c>
       <c r="D12">
         <v>2024</v>
@@ -2914,7 +3040,7 @@
         <v>-1.34</v>
       </c>
       <c r="K12">
-        <v>9.369999999999999</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="L12">
         <v>6.44</v>
@@ -2932,21 +3058,15 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>54570V1126345</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Eidkjosen</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -2958,13 +3078,13 @@
         <v>9.91</v>
       </c>
       <c r="G13">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H13">
         <v>-7.9</v>
       </c>
       <c r="I13">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J13">
         <v>6.63</v>
@@ -2984,22 +3104,19 @@
       <c r="O13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>92719V1125906</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Eidkjosen sør</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
+      <c r="P13">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
       </c>
       <c r="D14">
         <v>2023</v>
@@ -3038,24 +3155,18 @@
         <v>3.27</v>
       </c>
       <c r="P14">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>92719V1125906</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Eidkjosen sør</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
       </c>
       <c r="D15">
         <v>2024</v>
@@ -3070,7 +3181,7 @@
         <v>6.6</v>
       </c>
       <c r="H15">
-        <v>8.609999999999999</v>
+        <v>8.61</v>
       </c>
       <c r="I15">
         <v>3.72</v>
@@ -3088,7 +3199,7 @@
         <v>-1.38</v>
       </c>
       <c r="N15">
-        <v>-0.8100000000000001</v>
+        <v>-0.81</v>
       </c>
       <c r="O15">
         <v>-1.41</v>
@@ -3097,21 +3208,15 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>92719V1125906</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Eidkjosen sør</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
       </c>
       <c r="D16">
         <v>2025</v>
@@ -3120,7 +3225,7 @@
         <v>7.44</v>
       </c>
       <c r="F16">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G16">
         <v>-2.97</v>
@@ -3129,7 +3234,7 @@
         <v>-2.58</v>
       </c>
       <c r="I16">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="J16">
         <v>1.45</v>
@@ -3149,22 +3254,19 @@
       <c r="O16">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>07954V1125849</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Fagernes øst</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>fv. 91</t>
-        </is>
+      <c r="P16">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -3191,7 +3293,7 @@
         <v>7.54</v>
       </c>
       <c r="L17">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M17">
         <v>-0.26</v>
@@ -3206,21 +3308,15 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>07954V1125849</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fagernes øst</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>fv. 91</t>
-        </is>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -3235,7 +3331,7 @@
         <v>14.65</v>
       </c>
       <c r="H18">
-        <v>8.949999999999999</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I18">
         <v>5.74</v>
@@ -3250,7 +3346,7 @@
         <v>-0.3</v>
       </c>
       <c r="M18">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="N18">
         <v>2.98</v>
@@ -3262,21 +3358,15 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>07954V1125849</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fagernes øst</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>fv. 91</t>
-        </is>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
       </c>
       <c r="D19">
         <v>2025</v>
@@ -3297,7 +3387,7 @@
         <v>0.1</v>
       </c>
       <c r="J19">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K19">
         <v>2.52</v>
@@ -3314,22 +3404,19 @@
       <c r="O19">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>14843V1125937</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Giæverbukta nord</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+      <c r="P19">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
       </c>
       <c r="D20">
         <v>2023</v>
@@ -3368,24 +3455,18 @@
         <v>-13.39</v>
       </c>
       <c r="P20">
-        <v>-10.21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>14843V1125937</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Giæverbukta nord</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+        <v>-10.210000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
       </c>
       <c r="D21">
         <v>2024</v>
@@ -3421,41 +3502,29 @@
         <v>-6.02</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>14843V1125937</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Giæverbukta nord</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>01057V1109432</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Hansine Hansens veg</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>kv. 12650</t>
-        </is>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
       </c>
       <c r="D23">
         <v>2023</v>
@@ -3473,13 +3542,13 @@
         <v>-23.78</v>
       </c>
       <c r="I23">
-        <v>-16.4</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="J23">
         <v>-9.43</v>
       </c>
       <c r="K23">
-        <v>-9.390000000000001</v>
+        <v>-9.39</v>
       </c>
       <c r="L23">
         <v>-12.05</v>
@@ -3497,21 +3566,15 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>01057V1109432</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hansine Hansens veg</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>kv. 12650</t>
-        </is>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
       </c>
       <c r="D24">
         <v>2024</v>
@@ -3553,21 +3616,15 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>01057V1109432</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Hansine Hansens veg</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>kv. 12650</t>
-        </is>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -3576,7 +3633,7 @@
         <v>7.86</v>
       </c>
       <c r="F25">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G25">
         <v>11.84</v>
@@ -3605,22 +3662,19 @@
       <c r="O25">
         <v>-8.73</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>80998V1125915</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Hansjordnestunnelen</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+      <c r="P25">
+        <v>-7.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -3650,61 +3704,43 @@
         <v>-6.05</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>80998V1125915</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Hansjordnestunnelen</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
       </c>
       <c r="D27">
         <v>2024</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>80998V1125915</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Hansjordnestunnelen</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>85147V1201967</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Hungeren</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
       </c>
       <c r="D29">
         <v>2023</v>
@@ -3740,27 +3776,21 @@
         <v>-1.2</v>
       </c>
       <c r="O29">
-        <v>-2.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="P29">
         <v>-1.76</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>85147V1201967</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Hungeren</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
       </c>
       <c r="D30">
         <v>2024</v>
@@ -3799,27 +3829,21 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>85147V1201967</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Hungeren</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F31">
         <v>2.89</v>
@@ -3843,27 +3867,21 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>31958V1125796</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Kraftforsyningen (Tomasjord)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
       </c>
       <c r="D32">
         <v>2023</v>
       </c>
       <c r="E32">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F32">
         <v>0.43</v>
@@ -3899,21 +3917,15 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>31958V1125796</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Kraftforsyningen (Tomasjord)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
       </c>
       <c r="D33">
         <v>2024</v>
@@ -3931,7 +3943,7 @@
         <v>27.61</v>
       </c>
       <c r="I33">
-        <v>19.35</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="M33">
         <v>1.77</v>
@@ -3946,21 +3958,15 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>31958V1125796</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Kraftforsyningen (Tomasjord)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
       </c>
       <c r="D34">
         <v>2025</v>
@@ -3972,7 +3978,7 @@
         <v>3.71</v>
       </c>
       <c r="G34">
-        <v>8.880000000000001</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H34">
         <v>-4.84</v>
@@ -3981,7 +3987,7 @@
         <v>3.13</v>
       </c>
       <c r="M34">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="N34">
         <v>5.88</v>
@@ -3989,22 +3995,19 @@
       <c r="O34">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>03836V1125958</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Kvaløysletta nord</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>fv. 863</t>
-        </is>
+      <c r="P34">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
       </c>
       <c r="D35">
         <v>2023</v>
@@ -4019,7 +4022,7 @@
         <v>-4.72</v>
       </c>
       <c r="H35">
-        <v>-5.06</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="I35">
         <v>-7.83</v>
@@ -4046,21 +4049,15 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>03836V1125958</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Kvaløysletta nord</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>fv. 863</t>
-        </is>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
       </c>
       <c r="D36">
         <v>2024</v>
@@ -4084,50 +4081,29 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>03836V1125958</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Kvaløysletta nord</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>fv. 863</t>
-        </is>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
-      <c r="F37">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="G37">
-        <v>-4.26</v>
-      </c>
-      <c r="J37">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>62639V2268190</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Kvaløysletta sør</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
       </c>
       <c r="D38">
         <v>2023</v>
@@ -4142,7 +4118,7 @@
         <v>-8.09</v>
       </c>
       <c r="H38">
-        <v>-8.289999999999999</v>
+        <v>-8.2899999999999991</v>
       </c>
       <c r="I38">
         <v>-8.99</v>
@@ -4169,21 +4145,15 @@
         <v>-2.88</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>62639V2268190</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Kvaløysletta sør</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
       </c>
       <c r="D39">
         <v>2024</v>
@@ -4225,21 +4195,15 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>62639V2268190</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Kvaløysletta sør</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
       </c>
       <c r="D40">
         <v>2025</v>
@@ -4272,27 +4236,24 @@
         <v>3.26</v>
       </c>
       <c r="N40">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="O40">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>47285V3050559</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Kvaløyvegen</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>kv. 20600</t>
-        </is>
+      <c r="P40">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -4319,7 +4280,7 @@
         <v>-0.01</v>
       </c>
       <c r="L41">
-        <v>-4.64</v>
+        <v>-4.6399999999999997</v>
       </c>
       <c r="M41">
         <v>-7.45</v>
@@ -4334,21 +4295,15 @@
         <v>-3.01</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>47285V3050559</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Kvaløyvegen</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>kv. 20600</t>
-        </is>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
       </c>
       <c r="D42">
         <v>2024</v>
@@ -4378,7 +4333,7 @@
         <v>10.73</v>
       </c>
       <c r="M42">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N42">
         <v>4.84</v>
@@ -4390,47 +4345,29 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>47285V3050559</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Kvaløyvegen</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>kv. 20600</t>
-        </is>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
-      <c r="E43">
-        <v>4.84</v>
-      </c>
-      <c r="F43">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>52043V1664653</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Langnestunnelen</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
       </c>
       <c r="D44">
         <v>2023</v>
@@ -4448,7 +4385,7 @@
         <v>-11.34</v>
       </c>
       <c r="I44">
-        <v>-8.710000000000001</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="J44">
         <v>-2.76</v>
@@ -4469,21 +4406,15 @@
         <v>-22.39</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>52043V1664653</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Langnestunnelen</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -4522,41 +4453,29 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>52043V1664653</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Langnestunnelen</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>13980V1126353</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Lunheim</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>fv. 864</t>
-        </is>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
       </c>
       <c r="D47">
         <v>2023</v>
@@ -4592,27 +4511,21 @@
         <v>-2.82</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>13980V1126353</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Lunheim</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>fv. 864</t>
-        </is>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
       </c>
       <c r="D48">
         <v>2024</v>
       </c>
       <c r="E48">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F48">
         <v>3.16</v>
@@ -4648,21 +4561,15 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>13980V1126353</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Lunheim</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>fv. 864</t>
-        </is>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -4692,27 +4599,24 @@
         <v>5.07</v>
       </c>
       <c r="N49">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="O49">
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>49212V1126027</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Postterminalen</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+      <c r="P49">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
       </c>
       <c r="D50">
         <v>2023</v>
@@ -4733,13 +4637,13 @@
         <v>-3.22</v>
       </c>
       <c r="J50">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="K50">
         <v>6.54</v>
       </c>
       <c r="L50">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="M50">
         <v>-0.93</v>
@@ -4754,27 +4658,21 @@
         <v>-6.83</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>49212V1126027</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Postterminalen</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
       </c>
       <c r="D51">
         <v>2024</v>
       </c>
       <c r="E51">
-        <v>9.710000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F51">
         <v>11.69</v>
@@ -4801,7 +4699,7 @@
         <v>0.97</v>
       </c>
       <c r="N51">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="O51">
         <v>2.68</v>
@@ -4810,41 +4708,29 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>49212V1126027</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Postterminalen</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>34219V1109528</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Prestvannet</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>kv. 21200</t>
-        </is>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
       </c>
       <c r="D53">
         <v>2023</v>
@@ -4853,7 +4739,7 @@
         <v>-7.14</v>
       </c>
       <c r="F53">
-        <v>-9.300000000000001</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="G53">
         <v>-15.84</v>
@@ -4862,7 +4748,7 @@
         <v>-13.05</v>
       </c>
       <c r="I53">
-        <v>-18.42</v>
+        <v>-18.420000000000002</v>
       </c>
       <c r="J53">
         <v>-16.47</v>
@@ -4871,13 +4757,13 @@
         <v>-11.38</v>
       </c>
       <c r="L53">
-        <v>-8.970000000000001</v>
+        <v>-8.9700000000000006</v>
       </c>
       <c r="M53">
         <v>-3.73</v>
       </c>
       <c r="N53">
-        <v>-5.11</v>
+        <v>-5.1100000000000003</v>
       </c>
       <c r="O53">
         <v>0.09</v>
@@ -4886,21 +4772,15 @@
         <v>-3.93</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>34219V1109528</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Prestvannet</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>kv. 21200</t>
-        </is>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
       </c>
       <c r="D54">
         <v>2024</v>
@@ -4912,7 +4792,7 @@
         <v>12.02</v>
       </c>
       <c r="G54">
-        <v>9.210000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H54">
         <v>23.1</v>
@@ -4921,10 +4801,10 @@
         <v>12.47</v>
       </c>
       <c r="J54">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="K54">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="L54">
         <v>0.52</v>
@@ -4936,47 +4816,35 @@
         <v>4.01</v>
       </c>
       <c r="O54">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="P54">
         <v>0.86</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>34219V1109528</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Prestvannet</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>kv. 21200</t>
-        </is>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>74530V2378328</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Ringvegen</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>kv. 30790</t>
-        </is>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
       </c>
       <c r="D56">
         <v>2023</v>
@@ -5009,7 +4877,7 @@
         <v>-11.68</v>
       </c>
       <c r="N56">
-        <v>-9.720000000000001</v>
+        <v>-9.7200000000000006</v>
       </c>
       <c r="O56">
         <v>-10.97</v>
@@ -5018,21 +4886,15 @@
         <v>-8.93</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>74530V2378328</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Ringvegen</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>kv. 30790</t>
-        </is>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
       </c>
       <c r="D57">
         <v>2024</v>
@@ -5044,7 +4906,7 @@
         <v>5.65</v>
       </c>
       <c r="G57">
-        <v>-2.55</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="H57">
         <v>16.23</v>
@@ -5056,7 +4918,7 @@
         <v>-3.41</v>
       </c>
       <c r="K57">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="L57">
         <v>6.4</v>
@@ -5065,7 +4927,7 @@
         <v>7.95</v>
       </c>
       <c r="N57">
-        <v>9.039999999999999</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="O57">
         <v>7.26</v>
@@ -5074,27 +4936,21 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>74530V2378328</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Ringvegen</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>kv. 30790</t>
-        </is>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F58">
         <v>4.63</v>
@@ -5121,27 +4977,24 @@
         <v>-3.25</v>
       </c>
       <c r="N58">
-        <v>-4.11</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="O58">
         <v>-7.43</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>98487V2057940</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ryatunnelen</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
+      <c r="P58">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
       </c>
       <c r="D59">
         <v>2023</v>
@@ -5171,33 +5024,27 @@
         <v>11.29</v>
       </c>
       <c r="M59">
-        <v>-0.14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="N59">
         <v>6.67</v>
       </c>
       <c r="O59">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="P59">
         <v>5.58</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>98487V2057940</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Ryatunnelen</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
       </c>
       <c r="D60">
         <v>2024</v>
@@ -5227,7 +5074,7 @@
         <v>12.16</v>
       </c>
       <c r="M60">
-        <v>9.779999999999999</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="N60">
         <v>1.08</v>
@@ -5239,21 +5086,15 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>98487V2057940</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Ryatunnelen</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>fv. 858</t>
-        </is>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
       </c>
       <c r="D61">
         <v>2025</v>
@@ -5265,7 +5106,7 @@
         <v>3.7</v>
       </c>
       <c r="G61">
-        <v>-8.140000000000001</v>
+        <v>-8.14</v>
       </c>
       <c r="H61">
         <v>5.81</v>
@@ -5291,22 +5132,19 @@
       <c r="O61">
         <v>6.39</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>02636V1125920</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Sandnessundbrua</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+      <c r="P61">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
       </c>
       <c r="D62">
         <v>2023</v>
@@ -5318,7 +5156,7 @@
         <v>-10.3</v>
       </c>
       <c r="G62">
-        <v>-10.22</v>
+        <v>-10.220000000000001</v>
       </c>
       <c r="H62">
         <v>-9.76</v>
@@ -5327,7 +5165,7 @@
         <v>-5.13</v>
       </c>
       <c r="K62">
-        <v>-0.6899999999999999</v>
+        <v>-0.69</v>
       </c>
       <c r="L62">
         <v>-4.55</v>
@@ -5345,21 +5183,15 @@
         <v>-5.34</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>02636V1125920</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Sandnessundbrua</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
       </c>
       <c r="D63">
         <v>2024</v>
@@ -5398,21 +5230,15 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>02636V1125920</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Sandnessundbrua</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
       </c>
       <c r="D64">
         <v>2025</v>
@@ -5421,7 +5247,7 @@
         <v>7.95</v>
       </c>
       <c r="F64">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G64">
         <v>1.02</v>
@@ -5433,7 +5259,7 @@
         <v>2.6</v>
       </c>
       <c r="J64">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K64">
         <v>3.33</v>
@@ -5450,62 +5276,47 @@
       <c r="O64">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>61732V1126304</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Sandvikeidet</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+      <c r="P64">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
       </c>
       <c r="D65">
         <v>2023</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>61732V1126304</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Sandvikeidet</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
       </c>
       <c r="D66">
         <v>2024</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>61732V1126304</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Sandvikeidet</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
       </c>
       <c r="D67">
         <v>2025</v>
@@ -5526,7 +5337,7 @@
         <v>-1.2</v>
       </c>
       <c r="J67">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K67">
         <v>3.32</v>
@@ -5534,22 +5345,19 @@
       <c r="L67">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>71291V1125935</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Sentrumstangenten</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+      <c r="P67">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
       </c>
       <c r="D68">
         <v>2023</v>
@@ -5579,61 +5387,43 @@
         <v>-6.66</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>71291V1125935</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Sentrumstangenten</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
       </c>
       <c r="D69">
         <v>2024</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>71291V1125935</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Sentrumstangenten</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
       </c>
       <c r="D70">
         <v>2025</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>79743V1125914</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Tromsøbrua</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
       </c>
       <c r="D71">
         <v>2023</v>
@@ -5675,21 +5465,15 @@
         <v>-10.61</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>79743V1125914</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Tromsøbrua</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
       </c>
       <c r="D72">
         <v>2024</v>
@@ -5722,21 +5506,15 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>79743V1125914</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Tromsøbrua</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>fv. 862</t>
-        </is>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
       </c>
       <c r="D73">
         <v>2025</v>
@@ -5765,22 +5543,19 @@
       <c r="O73">
         <v>-5.31</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>68511V2673383</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T1</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+      <c r="P73">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
       </c>
       <c r="D74">
         <v>2023</v>
@@ -5810,21 +5585,15 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>68511V2673383</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T1</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
       </c>
       <c r="D75">
         <v>2024</v>
@@ -5854,21 +5623,15 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>68511V2673383</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T1</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
       </c>
       <c r="D76">
         <v>2025</v>
@@ -5889,30 +5652,27 @@
         <v>4.37</v>
       </c>
       <c r="M76">
-        <v>9.390000000000001</v>
+        <v>9.39</v>
       </c>
       <c r="N76">
         <v>9.93</v>
       </c>
       <c r="O76">
-        <v>9.630000000000001</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>31157V2782679</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T2</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="P76">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
       </c>
       <c r="D77">
         <v>2023</v>
@@ -5942,33 +5702,27 @@
         <v>-2.69</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>31157V2782679</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T2</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
       </c>
       <c r="D78">
         <v>2024</v>
       </c>
       <c r="E78">
-        <v>9.390000000000001</v>
+        <v>9.39</v>
       </c>
       <c r="F78">
         <v>10.75</v>
       </c>
       <c r="G78">
-        <v>-2.26</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="H78">
         <v>24.95</v>
@@ -5983,24 +5737,18 @@
         <v>6.87</v>
       </c>
       <c r="P78">
-        <v>9.369999999999999</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>31157V2782679</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Tromsøysundtunnelen T2</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
       </c>
       <c r="D79">
         <v>2025</v>
@@ -6009,7 +5757,7 @@
         <v>9.1</v>
       </c>
       <c r="F79">
-        <v>9.859999999999999</v>
+        <v>9.86</v>
       </c>
       <c r="G79">
         <v>21.22</v>
@@ -6029,22 +5777,19 @@
       <c r="O79">
         <v>8.83</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>64888V1125917</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Tverrforbindelsen</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+      <c r="P79">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
       </c>
       <c r="D80">
         <v>2023</v>
@@ -6053,7 +5798,7 @@
         <v>-1.79</v>
       </c>
       <c r="F80">
-        <v>-8.710000000000001</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="G80">
         <v>-14.03</v>
@@ -6068,7 +5813,7 @@
         <v>-5.79</v>
       </c>
       <c r="K80">
-        <v>-4.06</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="L80">
         <v>4.53</v>
@@ -6083,30 +5828,24 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>64888V1125917</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Tverrforbindelsen</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
       </c>
       <c r="D81">
         <v>2024</v>
       </c>
       <c r="E81">
-        <v>34.12</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="F81">
-        <v>34.12</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="G81">
         <v>22.83</v>
@@ -6133,33 +5872,21 @@
         <v>3.2</v>
       </c>
       <c r="P81">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>64888V1125917</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Tverrforbindelsen</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
       </c>
       <c r="D82">
         <v>2025</v>
-      </c>
-      <c r="E82">
-        <v>5.22</v>
-      </c>
-      <c r="F82">
-        <v>4.86</v>
       </c>
     </row>
   </sheetData>
@@ -6168,81 +5895,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year_base</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>year_from_to</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>index_type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>n_trp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>index_i</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>index_p</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>standard_error</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ci_lower</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ci_upper</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>area_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -6252,46 +5953,38 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2019-2022</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="I2">
         <v>-4.2</v>
       </c>
       <c r="J2">
-        <v>0.8723653820047497</v>
+        <v>0.87236538200474967</v>
       </c>
       <c r="K2">
         <v>-6.1</v>
       </c>
       <c r="L2">
-        <v>-2.3</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -6301,26 +5994,20 @@
       <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
       <c r="H3">
-        <v>0.9378</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="I3">
         <v>-6.2</v>
@@ -6334,13 +6021,11 @@
       <c r="L3">
         <v>-3.9</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -6350,32 +6035,26 @@
       <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
       </c>
       <c r="G4">
         <v>22</v>
       </c>
       <c r="H4">
-        <v>1.0431</v>
+        <v>1.0430999999999999</v>
       </c>
       <c r="I4">
         <v>4.3</v>
       </c>
       <c r="J4">
-        <v>2.077955497173004</v>
+        <v>2.0779554971730039</v>
       </c>
       <c r="K4">
         <v>0.2</v>
@@ -6383,13 +6062,11 @@
       <c r="L4">
         <v>8.4</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -6397,48 +6074,40 @@
         <v>2025</v>
       </c>
       <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>jan-nov</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>1.0127</v>
+        <v>1.0128999999999999</v>
       </c>
       <c r="I5">
         <v>1.3</v>
       </c>
       <c r="J5">
-        <v>1.141741421857783</v>
+        <v>1.1728714528213491</v>
       </c>
       <c r="K5">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6448,135 +6117,190 @@
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2022-2024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>chained</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
       </c>
       <c r="G6">
         <v>26</v>
       </c>
       <c r="H6">
-        <v>0.9782191799999999</v>
+        <v>0.97821917999999985</v>
       </c>
       <c r="I6">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="J6">
-        <v>2.306349631338904</v>
+        <v>2.3063496313389038</v>
       </c>
       <c r="K6">
         <v>-6.7</v>
       </c>
       <c r="L6">
-        <v>2.3</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B7">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2019-2023</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>chained</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>0.8984123999999999</v>
+        <v>0.99083820742199979</v>
       </c>
       <c r="I7">
-        <v>-10.15876000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="J7">
-        <v>1.397320590274238</v>
+        <v>2.6027788234251572</v>
       </c>
       <c r="K7">
-        <v>-12.9</v>
+        <v>-6</v>
       </c>
       <c r="L7">
-        <v>-7.4</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+        <v>4.2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
       <c r="B8">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2019-2024</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>chained</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>jan-des</t>
-        </is>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
       </c>
       <c r="H8">
+        <v>0.89841239999999989</v>
+      </c>
+      <c r="I8">
+        <v>-10.15876000000001</v>
+      </c>
+      <c r="J8">
+        <v>1.3973205902742381</v>
+      </c>
+      <c r="K8">
+        <v>-12.9</v>
+      </c>
+      <c r="L8">
+        <v>-7.4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9">
         <v>0.9371339744399998</v>
       </c>
-      <c r="I8">
-        <v>-6.28660255600002</v>
-      </c>
-      <c r="J8">
-        <v>2.368639008242137</v>
-      </c>
-      <c r="K8">
+      <c r="I9">
+        <v>-6.2866025560000196</v>
+      </c>
+      <c r="J9">
+        <v>2.3686390082421371</v>
+      </c>
+      <c r="K9">
         <v>-10.9</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-1.6</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Tromsø</t>
-        </is>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10">
+        <v>0.94922300271027582</v>
+      </c>
+      <c r="I10">
+        <v>-5.0776997289724184</v>
+      </c>
+      <c r="J10">
+        <v>2.639130435929006</v>
+      </c>
+      <c r="K10">
+        <v>-10.3</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6585,89 +6309,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index_i</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>index_p</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n_trp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n_eff</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sd_sample_p</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>standard_error_p</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ci_lower</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ci_upper</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>index_period</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>month_object</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>month_n</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>window</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.904946515163716</v>
+        <v>0.90494651516371605</v>
       </c>
       <c r="B2">
-        <v>-9.505348483628396</v>
+        <v>-9.5053484836283957</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -6676,10 +6374,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E2">
-        <v>4.552675558970757</v>
+        <v>4.5526755589707566</v>
       </c>
       <c r="F2">
-        <v>1.547392200322438</v>
+        <v>1.5473922003224381</v>
       </c>
       <c r="G2">
         <v>-12.5</v>
@@ -6687,10 +6385,8 @@
       <c r="H2">
         <v>-6.5</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2019 - (jan 2023 - des 2023)</t>
-        </is>
+      <c r="I2" t="s">
+        <v>197</v>
       </c>
       <c r="J2" s="2">
         <v>45261</v>
@@ -6701,18 +6397,16 @@
       <c r="L2">
         <v>2023</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.9097366725867301</v>
+        <v>0.90973667258673008</v>
       </c>
       <c r="B3">
-        <v>-9.026332741326993</v>
+        <v>-9.0263327413269927</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -6721,7 +6415,7 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E3">
-        <v>4.898204127576602</v>
+        <v>4.8982041275766024</v>
       </c>
       <c r="F3">
         <v>1.634591048341778</v>
@@ -6732,10 +6426,8 @@
       <c r="H3">
         <v>-5.8</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2019 - (feb 2023 - jan 2024)</t>
-        </is>
+      <c r="I3" t="s">
+        <v>199</v>
       </c>
       <c r="J3" s="2">
         <v>45292</v>
@@ -6746,18 +6438,16 @@
       <c r="L3">
         <v>2024</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.916089112200314</v>
+        <v>0.91608911220031397</v>
       </c>
       <c r="B4">
-        <v>-8.391088779968603</v>
+        <v>-8.3910887799686034</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -6769,18 +6459,16 @@
         <v>5.459182164715461</v>
       </c>
       <c r="F4">
-        <v>1.778303643406307</v>
+        <v>1.7783036434063071</v>
       </c>
       <c r="G4">
         <v>-11.9</v>
       </c>
       <c r="H4">
-        <v>-4.9</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2019 - (mar 2023 - feb 2024)</t>
-        </is>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="I4" t="s">
+        <v>200</v>
       </c>
       <c r="J4" s="2">
         <v>45323</v>
@@ -6791,18 +6479,16 @@
       <c r="L4">
         <v>2024</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="M4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.9171379310398536</v>
+        <v>0.91713793103985364</v>
       </c>
       <c r="B5">
-        <v>-8.286206896014637</v>
+        <v>-8.2862068960146367</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -6811,10 +6497,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E5">
-        <v>6.039205628382701</v>
+        <v>6.0392056283827014</v>
       </c>
       <c r="F5">
-        <v>1.927670403970975</v>
+        <v>1.9276704039709751</v>
       </c>
       <c r="G5">
         <v>-12.1</v>
@@ -6822,10 +6508,8 @@
       <c r="H5">
         <v>-4.5</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2019 - (apr 2023 - mar 2024)</t>
-        </is>
+      <c r="I5" t="s">
+        <v>201</v>
       </c>
       <c r="J5" s="2">
         <v>45352</v>
@@ -6836,18 +6520,16 @@
       <c r="L5">
         <v>2024</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="M5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.9300998243873487</v>
+        <v>0.93009982438734873</v>
       </c>
       <c r="B6">
-        <v>-6.990017561265127</v>
+        <v>-6.9900175612651267</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -6856,10 +6538,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E6">
-        <v>6.604833985549249</v>
+        <v>6.6048339855492486</v>
       </c>
       <c r="F6">
-        <v>2.08030135914587</v>
+        <v>2.0803013591458699</v>
       </c>
       <c r="G6">
         <v>-11.1</v>
@@ -6867,10 +6549,8 @@
       <c r="H6">
         <v>-2.9</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2019 - (mai 2023 - apr 2024)</t>
-        </is>
+      <c r="I6" t="s">
+        <v>202</v>
       </c>
       <c r="J6" s="2">
         <v>45383</v>
@@ -6881,15 +6561,13 @@
       <c r="L6">
         <v>2024</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.9346890090039893</v>
+        <v>0.93468900900398932</v>
       </c>
       <c r="B7">
         <v>-6.531099099601068</v>
@@ -6901,10 +6579,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E7">
-        <v>7.347358153301609</v>
+        <v>7.3473581533016086</v>
       </c>
       <c r="F7">
-        <v>2.27862495777311</v>
+        <v>2.2786249577731099</v>
       </c>
       <c r="G7">
         <v>-11</v>
@@ -6912,10 +6590,8 @@
       <c r="H7">
         <v>-2.1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2019 - (jun 2023 - mai 2024)</t>
-        </is>
+      <c r="I7" t="s">
+        <v>203</v>
       </c>
       <c r="J7" s="2">
         <v>45413</v>
@@ -6926,18 +6602,16 @@
       <c r="L7">
         <v>2024</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="M7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.9338161941389183</v>
+        <v>0.93381619413891825</v>
       </c>
       <c r="B8">
-        <v>-6.618380586108175</v>
+        <v>-6.6183805861081746</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -6946,10 +6620,10 @@
         <v>11.09036595633102</v>
       </c>
       <c r="E8">
-        <v>8.196089620330262</v>
+        <v>8.1960896203302624</v>
       </c>
       <c r="F8">
-        <v>2.506505260393146</v>
+        <v>2.5065052603931459</v>
       </c>
       <c r="G8">
         <v>-11.5</v>
@@ -6957,10 +6631,8 @@
       <c r="H8">
         <v>-1.7</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2019 - (jul 2023 - jun 2024)</t>
-        </is>
+      <c r="I8" t="s">
+        <v>204</v>
       </c>
       <c r="J8" s="2">
         <v>45444</v>
@@ -6971,41 +6643,37 @@
       <c r="L8">
         <v>2024</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="M8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.9578413792020659</v>
+        <v>0.95784137920206591</v>
       </c>
       <c r="B9">
-        <v>-4.215862079793409</v>
+        <v>-4.2158620797934088</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>11.28844938062726</v>
+        <v>11.288449380627259</v>
       </c>
       <c r="E9">
-        <v>9.249123911351994</v>
+        <v>9.2491239113519939</v>
       </c>
       <c r="F9">
-        <v>2.777833459749531</v>
+        <v>2.7778334597495311</v>
       </c>
       <c r="G9">
-        <v>-9.699999999999999</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="H9">
         <v>1.2</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2019 - (aug 2023 - jul 2024)</t>
-        </is>
+      <c r="I9" t="s">
+        <v>205</v>
       </c>
       <c r="J9" s="2">
         <v>45474</v>
@@ -7016,41 +6684,37 @@
       <c r="L9">
         <v>2024</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="M9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.9622990233876796</v>
+        <v>0.96229902338767959</v>
       </c>
       <c r="B10">
-        <v>-3.770097661232041</v>
+        <v>-3.7700976612320409</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10">
-        <v>11.28844938062726</v>
+        <v>11.288449380627259</v>
       </c>
       <c r="E10">
-        <v>10.24795425433594</v>
+        <v>10.247954254335941</v>
       </c>
       <c r="F10">
-        <v>3.050716056108725</v>
+        <v>3.0507160561087252</v>
       </c>
       <c r="G10">
-        <v>-9.699999999999999</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2019 - (sep 2023 - aug 2024)</t>
-        </is>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
       </c>
       <c r="J10" s="2">
         <v>45505</v>
@@ -7061,18 +6725,16 @@
       <c r="L10">
         <v>2024</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="M10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.9631266466002762</v>
+        <v>0.96312664660027625</v>
       </c>
       <c r="B11">
-        <v>-3.687335339972375</v>
+        <v>-3.6873353399723752</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -7081,21 +6743,19 @@
         <v>12.68580614598074</v>
       </c>
       <c r="E11">
-        <v>10.02606636162047</v>
+        <v>10.026066361620471</v>
       </c>
       <c r="F11">
-        <v>2.835864938689384</v>
+        <v>2.8358649386893839</v>
       </c>
       <c r="G11">
-        <v>-9.199999999999999</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="H11">
         <v>1.9</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2019 - (okt 2023 - sep 2024)</t>
-        </is>
+      <c r="I11" t="s">
+        <v>207</v>
       </c>
       <c r="J11" s="2">
         <v>45536</v>
@@ -7106,41 +6766,37 @@
       <c r="L11">
         <v>2024</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="M11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.9671989921194318</v>
+        <v>0.96719899211943183</v>
       </c>
       <c r="B12">
-        <v>-3.280100788056817</v>
+        <v>-3.2801007880568172</v>
       </c>
       <c r="C12">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E12">
-        <v>10.53424600973034</v>
+        <v>10.534246009730341</v>
       </c>
       <c r="F12">
-        <v>3.053225815627881</v>
+        <v>3.0532258156278811</v>
       </c>
       <c r="G12">
-        <v>-9.300000000000001</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="H12">
         <v>2.7</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2019 - (nov 2023 - okt 2024)</t>
-        </is>
+      <c r="I12" t="s">
+        <v>208</v>
       </c>
       <c r="J12" s="2">
         <v>45566</v>
@@ -7151,15 +6807,13 @@
       <c r="L12">
         <v>2024</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="M12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.9681205751961268</v>
+        <v>0.96812057519612682</v>
       </c>
       <c r="B13">
         <v>-3.187942480387318</v>
@@ -7168,24 +6822,22 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E13">
-        <v>10.76819477497953</v>
+        <v>10.768194774979531</v>
       </c>
       <c r="F13">
-        <v>3.115684425789549</v>
+        <v>3.1156844257895489</v>
       </c>
       <c r="G13">
-        <v>-9.300000000000001</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="H13">
         <v>2.9</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2019 - (des 2023 - nov 2024)</t>
-        </is>
+      <c r="I13" t="s">
+        <v>209</v>
       </c>
       <c r="J13" s="2">
         <v>45597</v>
@@ -7196,41 +6848,37 @@
       <c r="L13">
         <v>2024</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="M13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.9699582571143293</v>
+        <v>0.96995825711432926</v>
       </c>
       <c r="B14">
-        <v>-3.004174288567074</v>
+        <v>-3.0041742885670741</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E14">
         <v>11.00082216248431</v>
       </c>
       <c r="F14">
-        <v>3.178121559637787</v>
+        <v>3.1781215596377872</v>
       </c>
       <c r="G14">
-        <v>-9.199999999999999</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="H14">
         <v>3.2</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2019 - (jan 2024 - des 2024)</t>
-        </is>
+      <c r="I14" t="s">
+        <v>210</v>
       </c>
       <c r="J14" s="2">
         <v>45627</v>
@@ -7241,27 +6889,25 @@
       <c r="L14">
         <v>2024</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="M14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.9739315681403788</v>
+        <v>0.97393156814037884</v>
       </c>
       <c r="B15">
-        <v>-2.606843185962116</v>
+        <v>-2.6068431859621159</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E15">
-        <v>11.18795501367303</v>
+        <v>11.187955013673029</v>
       </c>
       <c r="F15">
         <v>3.229032432529289</v>
@@ -7272,10 +6918,8 @@
       <c r="H15">
         <v>3.7</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2019 - (feb 2024 - jan 2025)</t>
-        </is>
+      <c r="I15" t="s">
+        <v>211</v>
       </c>
       <c r="J15" s="2">
         <v>45658</v>
@@ -7286,15 +6930,13 @@
       <c r="L15">
         <v>2025</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="M15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.9762968906030406</v>
+        <v>0.97629689060304059</v>
       </c>
       <c r="B16">
         <v>-2.370310939695941</v>
@@ -7303,24 +6945,22 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E16">
-        <v>11.40363928678211</v>
+        <v>11.403639286782109</v>
       </c>
       <c r="F16">
-        <v>3.28720964047582</v>
+        <v>3.2872096404758202</v>
       </c>
       <c r="G16">
-        <v>-8.800000000000001</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="H16">
-        <v>4.1</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2019 - (mar 2024 - feb 2025)</t>
-        </is>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I16" t="s">
+        <v>212</v>
       </c>
       <c r="J16" s="2">
         <v>45689</v>
@@ -7331,24 +6971,22 @@
       <c r="L16">
         <v>2025</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="M16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.9789045190036227</v>
+        <v>0.97890451900362274</v>
       </c>
       <c r="B17">
-        <v>-2.109548099637726</v>
+        <v>-2.1095480996377258</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E17">
         <v>12.09764063981533</v>
@@ -7362,10 +7000,8 @@
       <c r="H17">
         <v>4.7</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2019 - (apr 2024 - mar 2025)</t>
-        </is>
+      <c r="I17" t="s">
+        <v>213</v>
       </c>
       <c r="J17" s="2">
         <v>45717</v>
@@ -7376,15 +7012,13 @@
       <c r="L17">
         <v>2025</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="M17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.9730780150521794</v>
+        <v>0.97307801505217939</v>
       </c>
       <c r="B18">
         <v>-2.692198494782061</v>
@@ -7393,24 +7027,22 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E18">
         <v>12.60724845293767</v>
       </c>
       <c r="F18">
-        <v>3.609194171733579</v>
+        <v>3.6091941717335789</v>
       </c>
       <c r="G18">
-        <v>-9.800000000000001</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="H18">
-        <v>4.4</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2019 - (mai 2024 - apr 2025)</t>
-        </is>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I18" t="s">
+        <v>214</v>
       </c>
       <c r="J18" s="2">
         <v>45748</v>
@@ -7421,41 +7053,37 @@
       <c r="L18">
         <v>2025</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="M18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.9747558243747362</v>
+        <v>0.97475582437473618</v>
       </c>
       <c r="B19">
-        <v>-2.524417562526382</v>
+        <v>-2.5244175625263821</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>11.91753941580306</v>
+        <v>11.917539415803059</v>
       </c>
       <c r="E19">
         <v>12.78229787561941</v>
       </c>
       <c r="F19">
-        <v>3.656676628692934</v>
+        <v>3.6566766286929342</v>
       </c>
       <c r="G19">
-        <v>-9.699999999999999</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="H19">
-        <v>4.6</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2019 - (jun 2024 - mai 2025)</t>
-        </is>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I19" t="s">
+        <v>215</v>
       </c>
       <c r="J19" s="2">
         <v>45778</v>
@@ -7466,27 +7094,25 @@
       <c r="L19">
         <v>2025</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="M19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.9525608761556345</v>
+        <v>0.95256087615563445</v>
       </c>
       <c r="B20">
-        <v>-4.743912384436555</v>
+        <v>-4.7439123844365554</v>
       </c>
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E20">
-        <v>10.61000452140108</v>
+        <v>10.610004521401081</v>
       </c>
       <c r="F20">
         <v>3.416598840542858</v>
@@ -7497,10 +7123,8 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2019 - (jul 2024 - jun 2025)</t>
-        </is>
+      <c r="I20" t="s">
+        <v>216</v>
       </c>
       <c r="J20" s="2">
         <v>45809</v>
@@ -7511,30 +7135,28 @@
       <c r="L20">
         <v>2025</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="M20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.9500011613600424</v>
+        <v>0.95000116136004242</v>
       </c>
       <c r="B21">
-        <v>-4.999883863995757</v>
+        <v>-4.9998838639957572</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E21">
-        <v>10.31144746805728</v>
+        <v>10.311447468057279</v>
       </c>
       <c r="F21">
-        <v>3.326132074421359</v>
+        <v>3.3261320744213592</v>
       </c>
       <c r="G21">
         <v>-11.5</v>
@@ -7542,10 +7164,8 @@
       <c r="H21">
         <v>1.5</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2019 - (aug 2024 - jul 2025)</t>
-        </is>
+      <c r="I21" t="s">
+        <v>217</v>
       </c>
       <c r="J21" s="2">
         <v>45839</v>
@@ -7556,27 +7176,25 @@
       <c r="L21">
         <v>2025</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="M21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.9512597031165574</v>
+        <v>0.95125970311655739</v>
       </c>
       <c r="B22">
-        <v>-4.874029688344262</v>
+        <v>-4.8740296883442618</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E22">
-        <v>10.22273714857431</v>
+        <v>10.222737148574311</v>
       </c>
       <c r="F22">
         <v>3.299761208726788</v>
@@ -7587,10 +7205,8 @@
       <c r="H22">
         <v>1.6</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2019 - (sep 2024 - aug 2025)</t>
-        </is>
+      <c r="I22" t="s">
+        <v>218</v>
       </c>
       <c r="J22" s="2">
         <v>45870</v>
@@ -7601,30 +7217,28 @@
       <c r="L22">
         <v>2025</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="M22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.9548812393557694</v>
+        <v>0.95488123935576941</v>
       </c>
       <c r="B23">
-        <v>-4.51187606442306</v>
+        <v>-4.5118760644230598</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E23">
         <v>10.43624415458974</v>
       </c>
       <c r="F23">
-        <v>3.364825111190881</v>
+        <v>3.3648251111908811</v>
       </c>
       <c r="G23">
         <v>-11.1</v>
@@ -7632,10 +7246,8 @@
       <c r="H23">
         <v>2.1</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2019 - (okt 2024 - sep 2025)</t>
-        </is>
+      <c r="I23" t="s">
+        <v>219</v>
       </c>
       <c r="J23" s="2">
         <v>45901</v>
@@ -7646,30 +7258,28 @@
       <c r="L23">
         <v>2025</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="M23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.9568554091875735</v>
       </c>
       <c r="B24">
-        <v>-4.314459081242649</v>
+        <v>-4.3144590812426493</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E24">
-        <v>10.62561012946104</v>
+        <v>10.625610129461039</v>
       </c>
       <c r="F24">
-        <v>3.422293990449863</v>
+        <v>3.4222939904498628</v>
       </c>
       <c r="G24">
         <v>-11</v>
@@ -7677,10 +7287,8 @@
       <c r="H24">
         <v>2.4</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2019 - (nov 2024 - okt 2025)</t>
-        </is>
+      <c r="I24" t="s">
+        <v>220</v>
       </c>
       <c r="J24" s="2">
         <v>45931</v>
@@ -7691,30 +7299,28 @@
       <c r="L24">
         <v>2025</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="M24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.956676435683516</v>
+        <v>0.95667643568351601</v>
       </c>
       <c r="B25">
-        <v>-4.332356431648399</v>
+        <v>-4.3323564316483987</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E25">
         <v>10.84107229899311</v>
       </c>
       <c r="F25">
-        <v>3.487192733000519</v>
+        <v>3.4871927330005188</v>
       </c>
       <c r="G25">
         <v>-11.2</v>
@@ -7722,10 +7328,8 @@
       <c r="H25">
         <v>2.5</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2019 - (des 2024 - nov 2025)</t>
-        </is>
+      <c r="I25" t="s">
+        <v>221</v>
       </c>
       <c r="J25" s="2">
         <v>45962</v>
@@ -7736,550 +7340,623 @@
       <c r="L25">
         <v>2025</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>12_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="M25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.9407166855002579</v>
+        <v>0.9589623265005236</v>
       </c>
       <c r="B26">
-        <v>-5.928331449974211</v>
+        <v>-4.1037673499476401</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>9.85146347193337</v>
+        <v>10.21907204229225</v>
       </c>
       <c r="E26">
-        <v>7.329273390694706</v>
+        <v>10.690166660900941</v>
       </c>
       <c r="F26">
-        <v>2.395542921504799</v>
+        <v>3.3206531284738081</v>
       </c>
       <c r="G26">
         <v>-10.6</v>
       </c>
       <c r="H26">
-        <v>-1.2</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2019 - (jan 2023 - des 2024)</t>
-        </is>
+        <v>2.4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
       </c>
       <c r="J26" s="2">
-        <v>45627</v>
+        <v>45992</v>
       </c>
       <c r="K26">
         <v>12</v>
       </c>
       <c r="L26">
-        <v>2024</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+        <v>2025</v>
+      </c>
+      <c r="M26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.9448885225160316</v>
+        <v>0.94071668550025789</v>
       </c>
       <c r="B27">
-        <v>-5.511147748396839</v>
+        <v>-5.9283314499742108</v>
       </c>
       <c r="C27">
         <v>14</v>
       </c>
       <c r="D27">
-        <v>9.85146347193337</v>
+        <v>9.8514634719333696</v>
       </c>
       <c r="E27">
-        <v>7.751253966998971</v>
+        <v>7.3292733906947056</v>
       </c>
       <c r="F27">
-        <v>2.5175465032293</v>
+        <v>2.395542921504799</v>
       </c>
       <c r="G27">
-        <v>-10.4</v>
+        <v>-10.6</v>
       </c>
       <c r="H27">
-        <v>-0.6</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2019 - (feb 2023 - jan 2025)</t>
-        </is>
+        <v>-1.2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
       </c>
       <c r="J27" s="2">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L27">
-        <v>2025</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+        <v>2024</v>
+      </c>
+      <c r="M27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.9493633079377803</v>
+        <v>0.94488852251603161</v>
       </c>
       <c r="B28">
-        <v>-5.063669206221966</v>
+        <v>-5.511147748396839</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
       <c r="D28">
-        <v>9.85146347193337</v>
+        <v>9.8514634719333696</v>
       </c>
       <c r="E28">
-        <v>8.199525507506396</v>
+        <v>7.7512539669989708</v>
       </c>
       <c r="F28">
-        <v>2.647875692112421</v>
+        <v>2.5175465032292998</v>
       </c>
       <c r="G28">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="H28">
-        <v>0.1</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2019 - (mar 2023 - feb 2025)</t>
-        </is>
+        <v>-0.6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
       </c>
       <c r="J28" s="2">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>2025</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="M28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.9501717700140583</v>
+        <v>0.94936330793778034</v>
       </c>
       <c r="B29">
-        <v>-4.982822998594171</v>
+        <v>-5.0636692062219657</v>
       </c>
       <c r="C29">
         <v>14</v>
       </c>
       <c r="D29">
-        <v>9.85146347193337</v>
+        <v>9.8514634719333696</v>
       </c>
       <c r="E29">
-        <v>8.616161112309243</v>
+        <v>8.1995255075063955</v>
       </c>
       <c r="F29">
-        <v>2.768619629046594</v>
+        <v>2.6478756921124211</v>
       </c>
       <c r="G29">
-        <v>-10.4</v>
+        <v>-10.3</v>
       </c>
       <c r="H29">
-        <v>0.4</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2019 - (apr 2023 - mar 2025)</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
       </c>
       <c r="J29" s="2">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>2025</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="M29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.9538765915536376</v>
+        <v>0.95017177001405828</v>
       </c>
       <c r="B30">
-        <v>-4.612340844636242</v>
+        <v>-4.9828229985941714</v>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
       <c r="D30">
-        <v>9.85146347193337</v>
+        <v>9.8514634719333696</v>
       </c>
       <c r="E30">
-        <v>9.190469092064667</v>
+        <v>8.6161611123092428</v>
       </c>
       <c r="F30">
-        <v>2.936645120593631</v>
+        <v>2.7686196290465941</v>
       </c>
       <c r="G30">
         <v>-10.4</v>
       </c>
       <c r="H30">
-        <v>1.1</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2019 - (mai 2023 - apr 2025)</t>
-        </is>
+        <v>0.4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
       </c>
       <c r="J30" s="2">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>2025</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="M30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.9566542182687537</v>
+        <v>0.95387659155363758</v>
       </c>
       <c r="B31">
-        <v>-4.334578173124626</v>
+        <v>-4.6123408446362424</v>
       </c>
       <c r="C31">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>9.85146347193337</v>
+        <v>9.8514634719333696</v>
       </c>
       <c r="E31">
-        <v>9.660527652721862</v>
+        <v>9.1904690920646672</v>
       </c>
       <c r="F31">
-        <v>3.074711764079583</v>
+        <v>2.936645120593631</v>
       </c>
       <c r="G31">
         <v>-10.4</v>
       </c>
       <c r="H31">
-        <v>1.7</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2019 - (jun 2023 - mai 2025)</t>
-        </is>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
       </c>
       <c r="J31" s="2">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <v>2025</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="M31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.9337995597988019</v>
+        <v>0.95665421826875374</v>
       </c>
       <c r="B32">
-        <v>-6.620044020119808</v>
+        <v>-4.3345781731246262</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>8.176539225649242</v>
+        <v>9.8514634719333696</v>
       </c>
       <c r="E32">
-        <v>7.9106263041602</v>
+        <v>9.6605276527218624</v>
       </c>
       <c r="F32">
-        <v>2.783454672675907</v>
+        <v>3.0747117640795829</v>
       </c>
       <c r="G32">
-        <v>-12.1</v>
+        <v>-10.4</v>
       </c>
       <c r="H32">
-        <v>-1.2</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2019 - (jul 2023 - jun 2025)</t>
-        </is>
+        <v>1.7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
       </c>
       <c r="J32" s="2">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L32">
         <v>2025</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="M32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.9355678479216543</v>
+        <v>0.93379955979880191</v>
       </c>
       <c r="B33">
-        <v>-6.443215207834574</v>
+        <v>-6.6200440201198081</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>7.442799395296631</v>
+        <v>8.1765392256492415</v>
       </c>
       <c r="E33">
-        <v>8.880892518164108</v>
+        <v>7.9106263041601999</v>
       </c>
       <c r="F33">
-        <v>3.232957748931967</v>
+        <v>2.7834546726759068</v>
       </c>
       <c r="G33">
-        <v>-12.8</v>
+        <v>-12.1</v>
       </c>
       <c r="H33">
-        <v>-0.1</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2019 - (aug 2023 - jul 2025)</t>
-        </is>
+        <v>-1.2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>230</v>
       </c>
       <c r="J33" s="2">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>2025</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="M33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.9424201687562938</v>
+        <v>0.93556784792165426</v>
       </c>
       <c r="B34">
-        <v>-5.757983124370625</v>
+        <v>-6.4432152078345739</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>8.761728922821021</v>
+        <v>7.4427993952966309</v>
       </c>
       <c r="E34">
-        <v>9.104489218576708</v>
+        <v>8.8808925181641083</v>
       </c>
       <c r="F34">
-        <v>3.06917602620251</v>
+        <v>3.232957748931967</v>
       </c>
       <c r="G34">
-        <v>-11.8</v>
+        <v>-12.8</v>
       </c>
       <c r="H34">
-        <v>0.3</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2019 - (sep 2023 - aug 2025)</t>
-        </is>
+        <v>-0.1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>231</v>
       </c>
       <c r="J34" s="2">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34">
         <v>2025</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="M34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.9484594993530926</v>
+        <v>0.94242016875629375</v>
       </c>
       <c r="B35">
-        <v>-5.154050064690741</v>
+        <v>-5.7579831243706252</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>9.461194469994499</v>
+        <v>8.7617289228210211</v>
       </c>
       <c r="E35">
-        <v>9.229410045651292</v>
+        <v>9.1044892185767079</v>
       </c>
       <c r="F35">
-        <v>3.0015883470018</v>
+        <v>3.0691760262025101</v>
       </c>
       <c r="G35">
-        <v>-11</v>
+        <v>-11.8</v>
       </c>
       <c r="H35">
-        <v>0.7</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2019 - (okt 2023 - sep 2025)</t>
-        </is>
+        <v>0.3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>232</v>
       </c>
       <c r="J35" s="2">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35">
         <v>2025</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="M35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.9504647415344348</v>
+        <v>0.94845949935309259</v>
       </c>
       <c r="B36">
-        <v>-4.953525846556516</v>
+        <v>-5.1540500646907406</v>
       </c>
       <c r="C36">
         <v>14</v>
       </c>
       <c r="D36">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E36">
-        <v>9.445356864131334</v>
+        <v>9.2294100456512922</v>
       </c>
       <c r="F36">
-        <v>3.066579836549348</v>
+        <v>3.0015883470018001</v>
       </c>
       <c r="G36">
         <v>-11</v>
       </c>
       <c r="H36">
-        <v>1.1</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2019 - (nov 2023 - okt 2025)</t>
-        </is>
+        <v>0.7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>233</v>
       </c>
       <c r="J36" s="2">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L36">
         <v>2025</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="M36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.9505415319810241</v>
+        <v>0.95046474153443483</v>
       </c>
       <c r="B37">
-        <v>-4.945846801897591</v>
+        <v>-4.9535258465565164</v>
       </c>
       <c r="C37">
         <v>14</v>
       </c>
       <c r="D37">
-        <v>9.461194469994499</v>
+        <v>9.4611944699944992</v>
       </c>
       <c r="E37">
-        <v>9.649200500987547</v>
+        <v>9.4453568641313339</v>
       </c>
       <c r="F37">
-        <v>3.1275596420733</v>
+        <v>3.066579836549348</v>
       </c>
       <c r="G37">
-        <v>-11.1</v>
+        <v>-11</v>
       </c>
       <c r="H37">
-        <v>1.2</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2019 - (des 2023 - nov 2025)</t>
-        </is>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I37" t="s">
+        <v>234</v>
       </c>
       <c r="J37" s="2">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="K37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>2025</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>24_months</t>
-        </is>
+      <c r="M37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.95054153198102409</v>
+      </c>
+      <c r="B38">
+        <v>-4.9458468018975914</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>9.4611944699944992</v>
+      </c>
+      <c r="E38">
+        <v>9.649200500987547</v>
+      </c>
+      <c r="F38">
+        <v>3.1275596420733001</v>
+      </c>
+      <c r="G38">
+        <v>-11.1</v>
+      </c>
+      <c r="H38">
+        <v>1.2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" s="2">
+        <v>45962</v>
+      </c>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>2025</v>
+      </c>
+      <c r="M38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.95215099705545569</v>
+      </c>
+      <c r="B39">
+        <v>-4.784900294454431</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>9.4611944699944992</v>
+      </c>
+      <c r="E39">
+        <v>9.8299907380468667</v>
+      </c>
+      <c r="F39">
+        <v>3.1821073588744362</v>
+      </c>
+      <c r="G39">
+        <v>-11</v>
+      </c>
+      <c r="H39">
+        <v>1.5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" s="2">
+        <v>45992</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>2025</v>
+      </c>
+      <c r="M39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.93107003023361345</v>
+      </c>
+      <c r="B40">
+        <v>-6.8929969766386554</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>7.4427993952966309</v>
+      </c>
+      <c r="E40">
+        <v>7.8623960025712174</v>
+      </c>
+      <c r="F40">
+        <v>2.888268313374867</v>
+      </c>
+      <c r="G40">
+        <v>-12.6</v>
+      </c>
+      <c r="H40">
+        <v>-1.2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" s="2">
+        <v>45992</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>2025</v>
+      </c>
+      <c r="M40" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
